--- a/dashboards/Dashboard_CashFlow.xlsx
+++ b/dashboards/Dashboard_CashFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telamon/DataScience/repositories/investing/dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FD402E-712A-3B43-A7A6-0017282CDF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BADEAF-4F4A-4646-ADB1-8161EE368B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1355,22 +1355,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D2">
-            <v>20</v>
+            <v>15</v>
           </cell>
           <cell r="E2">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="F2">
-            <v>15</v>
+            <v>5</v>
           </cell>
           <cell r="G2">
-            <v>10</v>
+            <v>14</v>
           </cell>
           <cell r="H2">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="I2">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="J2">
             <v>6</v>
@@ -1391,16 +1391,16 @@
             <v>10</v>
           </cell>
           <cell r="P2">
-            <v>284.81945398417798</v>
+            <v>184.34308241546901</v>
           </cell>
           <cell r="Q2">
-            <v>120.576607366093</v>
+            <v>91.470527693796996</v>
           </cell>
           <cell r="R2">
-            <v>56.279269215865597</v>
+            <v>51.255174279427401</v>
           </cell>
           <cell r="S2">
-            <v>150.56025990645</v>
+            <v>107.267688085987</v>
           </cell>
         </row>
         <row r="3">
@@ -1417,19 +1417,19 @@
             <v>10</v>
           </cell>
           <cell r="E3">
+            <v>7</v>
+          </cell>
+          <cell r="F3">
+            <v>4</v>
+          </cell>
+          <cell r="G3">
             <v>9</v>
-          </cell>
-          <cell r="F3">
-            <v>8</v>
-          </cell>
-          <cell r="G3">
-            <v>7</v>
           </cell>
           <cell r="H3">
             <v>6</v>
           </cell>
           <cell r="I3">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="J3">
             <v>6</v>
@@ -1450,16 +1450,16 @@
             <v>10</v>
           </cell>
           <cell r="P3">
-            <v>334.94598944940702</v>
+            <v>305.32416689419199</v>
           </cell>
           <cell r="Q3">
-            <v>182.201835350072</v>
+            <v>165.50620010220399</v>
           </cell>
           <cell r="R3">
-            <v>111.07568470541101</v>
+            <v>100.892440467347</v>
           </cell>
           <cell r="S3">
-            <v>206.68723638647401</v>
+            <v>188.06746224934301</v>
           </cell>
         </row>
         <row r="4">
@@ -1473,22 +1473,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D4">
-            <v>20</v>
+            <v>25</v>
           </cell>
           <cell r="E4">
             <v>15</v>
           </cell>
           <cell r="F4">
-            <v>15</v>
+            <v>5</v>
           </cell>
           <cell r="G4">
-            <v>10</v>
+            <v>23</v>
           </cell>
           <cell r="H4">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="I4">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="J4">
             <v>6</v>
@@ -1509,16 +1509,16 @@
             <v>10</v>
           </cell>
           <cell r="P4">
-            <v>1534.03655646774</v>
+            <v>1881.39308684616</v>
           </cell>
           <cell r="Q4">
-            <v>649.42517432366003</v>
+            <v>720.35826699548295</v>
           </cell>
           <cell r="R4">
-            <v>303.11994191668998</v>
+            <v>314.979963873646</v>
           </cell>
           <cell r="S4">
-            <v>810.91701924479605</v>
+            <v>947.05522201413703</v>
           </cell>
         </row>
         <row r="5">
@@ -1532,22 +1532,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D5">
-            <v>20</v>
+            <v>25</v>
           </cell>
           <cell r="E5">
             <v>15</v>
           </cell>
           <cell r="F5">
-            <v>15</v>
+            <v>5</v>
           </cell>
           <cell r="G5">
-            <v>10</v>
+            <v>23</v>
           </cell>
           <cell r="H5">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="I5">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="J5">
             <v>6</v>
@@ -1568,16 +1568,16 @@
             <v>10</v>
           </cell>
           <cell r="P5">
-            <v>545.605668583696</v>
+            <v>669.148807888286</v>
           </cell>
           <cell r="Q5">
-            <v>230.978887001115</v>
+            <v>256.20742362805998</v>
           </cell>
           <cell r="R5">
-            <v>107.809659341703</v>
+            <v>112.027873817726</v>
           </cell>
           <cell r="S5">
-            <v>288.416153178066</v>
+            <v>336.83597396302798</v>
           </cell>
         </row>
         <row r="6">
@@ -1591,19 +1591,19 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D6">
-            <v>12</v>
+            <v>10</v>
           </cell>
           <cell r="E6">
-            <v>11</v>
+            <v>7</v>
           </cell>
           <cell r="F6">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="G6">
-            <v>7</v>
+            <v>9</v>
           </cell>
           <cell r="H6">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="I6">
             <v>3</v>
@@ -1627,16 +1627,16 @@
             <v>10</v>
           </cell>
           <cell r="P6">
-            <v>367.72795745525201</v>
+            <v>279.70740005726498</v>
           </cell>
           <cell r="Q6">
-            <v>166.91506004859201</v>
+            <v>151.62019238387799</v>
           </cell>
           <cell r="R6">
-            <v>84.030853180782202</v>
+            <v>92.427541834032496</v>
           </cell>
           <cell r="S6">
-            <v>202.29366721024701</v>
+            <v>172.28855952094</v>
           </cell>
         </row>
         <row r="7">
@@ -1656,16 +1656,16 @@
             <v>10</v>
           </cell>
           <cell r="F7">
-            <v>10</v>
+            <v>5</v>
           </cell>
           <cell r="G7">
-            <v>5</v>
+            <v>13</v>
           </cell>
           <cell r="H7">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="I7">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="J7">
             <v>6</v>
@@ -1689,13 +1689,13 @@
             <v>639.73999696427597</v>
           </cell>
           <cell r="Q7">
-            <v>265.519861278414</v>
+            <v>303.756656725016</v>
           </cell>
           <cell r="R7">
-            <v>121.272319063518</v>
+            <v>161.852752007102</v>
           </cell>
           <cell r="S7">
-            <v>334.51163931970399</v>
+            <v>361.98048738142001</v>
           </cell>
         </row>
         <row r="8">
@@ -1709,22 +1709,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D8">
-            <v>20</v>
+            <v>7</v>
           </cell>
           <cell r="E8">
-            <v>15</v>
+            <v>5</v>
           </cell>
           <cell r="F8">
-            <v>15</v>
+            <v>3</v>
           </cell>
           <cell r="G8">
-            <v>10</v>
+            <v>6</v>
           </cell>
           <cell r="H8">
-            <v>10</v>
+            <v>4</v>
           </cell>
           <cell r="I8">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="J8">
             <v>6</v>
@@ -1745,16 +1745,16 @@
             <v>10</v>
           </cell>
           <cell r="P8">
-            <v>173.34613088085499</v>
+            <v>61.998917149226799</v>
           </cell>
           <cell r="Q8">
-            <v>73.385044698573594</v>
+            <v>35.145553343478603</v>
           </cell>
           <cell r="R8">
-            <v>34.252553436585998</v>
+            <v>22.3846643508112</v>
           </cell>
           <cell r="S8">
-            <v>91.633623174662006</v>
+            <v>39.373295787402803</v>
           </cell>
         </row>
         <row r="9">
@@ -1774,16 +1774,16 @@
             <v>15</v>
           </cell>
           <cell r="F9">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="G9">
-            <v>10</v>
+            <v>18</v>
           </cell>
           <cell r="H9">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="I9">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="J9">
             <v>6</v>
@@ -1807,13 +1807,13 @@
             <v>5132.3749724222598</v>
           </cell>
           <cell r="Q9">
-            <v>2172.7601582288598</v>
+            <v>2471.34071290063</v>
           </cell>
           <cell r="R9">
-            <v>1014.1382856726</v>
+            <v>1335.66717251144</v>
           </cell>
           <cell r="S9">
-            <v>2713.05804072</v>
+            <v>2928.94892864036</v>
           </cell>
         </row>
         <row r="10">
@@ -1827,22 +1827,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D10">
-            <v>11</v>
+            <v>0</v>
           </cell>
           <cell r="E10">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="F10">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="G10">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H10">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="I10">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="J10">
             <v>6</v>
@@ -1863,16 +1863,16 @@
             <v>10</v>
           </cell>
           <cell r="P10">
-            <v>-5.2978102793225803</v>
+            <v>-2.0433794339765101</v>
           </cell>
           <cell r="Q10">
-            <v>-2.88427463790243</v>
+            <v>-1.33655007002237</v>
           </cell>
           <cell r="R10">
-            <v>-1.7598624002953001</v>
+            <v>-0.98313538804530498</v>
           </cell>
           <cell r="S10">
-            <v>-3.2710116590463398</v>
+            <v>-1.44257447461549</v>
           </cell>
         </row>
         <row r="11">
@@ -1892,16 +1892,16 @@
             <v>15</v>
           </cell>
           <cell r="F11">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="G11">
-            <v>10</v>
+            <v>17</v>
           </cell>
           <cell r="H11">
-            <v>10</v>
+            <v>12</v>
           </cell>
           <cell r="I11">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="J11">
             <v>6</v>
@@ -1925,13 +1925,13 @@
             <v>447.42732896976003</v>
           </cell>
           <cell r="Q11">
-            <v>189.41567584440099</v>
+            <v>206.469556484902</v>
           </cell>
           <cell r="R11">
-            <v>88.409983059034801</v>
+            <v>106.31643073057</v>
           </cell>
           <cell r="S11">
-            <v>236.517463946399</v>
+            <v>248.71095050406001</v>
           </cell>
         </row>
         <row r="12">
@@ -1948,19 +1948,19 @@
             <v>25</v>
           </cell>
           <cell r="E12">
-            <v>20</v>
+            <v>10</v>
           </cell>
           <cell r="F12">
-            <v>10</v>
+            <v>0</v>
           </cell>
           <cell r="G12">
-            <v>5</v>
+            <v>23</v>
           </cell>
           <cell r="H12">
-            <v>-5</v>
+            <v>8</v>
           </cell>
           <cell r="I12">
-            <v>-5</v>
+            <v>-2</v>
           </cell>
           <cell r="J12">
             <v>6</v>
@@ -1981,16 +1981,16 @@
             <v>10</v>
           </cell>
           <cell r="P12">
-            <v>553.953778990302</v>
+            <v>358.53431254889699</v>
           </cell>
           <cell r="Q12">
-            <v>98.076141206822598</v>
+            <v>134.33185323863401</v>
           </cell>
           <cell r="R12">
-            <v>21.0144291894979</v>
+            <v>46.615537998802701</v>
           </cell>
           <cell r="S12">
-            <v>211.72091893666899</v>
+            <v>175.27769645976301</v>
           </cell>
         </row>
         <row r="13">
@@ -2004,22 +2004,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D13">
-            <v>20</v>
+            <v>10</v>
           </cell>
           <cell r="E13">
-            <v>15</v>
+            <v>7</v>
           </cell>
           <cell r="F13">
-            <v>15</v>
+            <v>4</v>
           </cell>
           <cell r="G13">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="H13">
-            <v>10</v>
+            <v>5</v>
           </cell>
           <cell r="I13">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="J13">
             <v>6</v>
@@ -2040,16 +2040,16 @@
             <v>10</v>
           </cell>
           <cell r="P13">
-            <v>380.44106600400198</v>
+            <v>171.70157231237999</v>
           </cell>
           <cell r="Q13">
-            <v>161.05744323226699</v>
+            <v>88.8819648768349</v>
           </cell>
           <cell r="R13">
-            <v>75.173745595339298</v>
+            <v>51.535159307582497</v>
           </cell>
           <cell r="S13">
-            <v>201.10742077270899</v>
+            <v>102.523805436722</v>
           </cell>
         </row>
         <row r="14">
@@ -2063,22 +2063,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D14">
-            <v>25</v>
+            <v>10</v>
           </cell>
           <cell r="E14">
-            <v>10</v>
+            <v>7</v>
           </cell>
           <cell r="F14">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="G14">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="H14">
-            <v>-5</v>
+            <v>5</v>
           </cell>
           <cell r="I14">
-            <v>-5</v>
+            <v>2</v>
           </cell>
           <cell r="J14">
             <v>6</v>
@@ -2099,16 +2099,16 @@
             <v>10</v>
           </cell>
           <cell r="P14">
-            <v>32.639678313274899</v>
+            <v>15.000809409011699</v>
           </cell>
           <cell r="Q14">
-            <v>7.7790622461947203</v>
+            <v>7.7652254260675599</v>
           </cell>
           <cell r="R14">
-            <v>1.91307828755934</v>
+            <v>4.5023996706893303</v>
           </cell>
           <cell r="S14">
-            <v>13.4774518787281</v>
+            <v>8.9570528943373393</v>
           </cell>
         </row>
         <row r="15">
@@ -2122,22 +2122,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D15">
-            <v>20</v>
+            <v>10</v>
           </cell>
           <cell r="E15">
-            <v>15</v>
+            <v>7</v>
           </cell>
           <cell r="F15">
-            <v>15</v>
+            <v>4</v>
           </cell>
           <cell r="G15">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="H15">
-            <v>10</v>
+            <v>5</v>
           </cell>
           <cell r="I15">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="J15">
             <v>6</v>
@@ -2158,16 +2158,16 @@
             <v>10</v>
           </cell>
           <cell r="P15">
-            <v>404.98565090748502</v>
+            <v>182.779093106727</v>
           </cell>
           <cell r="Q15">
-            <v>171.44824602144601</v>
+            <v>94.616285191469402</v>
           </cell>
           <cell r="R15">
-            <v>80.023664666006297</v>
+            <v>54.860008295168399</v>
           </cell>
           <cell r="S15">
-            <v>214.08209308062601</v>
+            <v>109.13824449715599</v>
           </cell>
         </row>
         <row r="16">
@@ -2181,22 +2181,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D16">
-            <v>20</v>
+            <v>15</v>
           </cell>
           <cell r="E16">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="F16">
-            <v>15</v>
+            <v>5</v>
           </cell>
           <cell r="G16">
-            <v>10</v>
+            <v>14</v>
           </cell>
           <cell r="H16">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="I16">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="J16">
             <v>6</v>
@@ -2217,16 +2217,16 @@
             <v>10</v>
           </cell>
           <cell r="P16">
-            <v>236.75297521485601</v>
+            <v>153.233118776233</v>
           </cell>
           <cell r="Q16">
-            <v>100.22795190395099</v>
+            <v>76.033849770606807</v>
           </cell>
           <cell r="R16">
-            <v>46.781511035809203</v>
+            <v>42.605288494389399</v>
           </cell>
           <cell r="S16">
-            <v>125.15152663678001</v>
+            <v>89.165062089429696</v>
           </cell>
         </row>
         <row r="17">
@@ -2243,13 +2243,13 @@
             <v>6</v>
           </cell>
           <cell r="E17">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="F17">
+            <v>3</v>
+          </cell>
+          <cell r="G17">
             <v>4</v>
-          </cell>
-          <cell r="G17">
-            <v>3</v>
           </cell>
           <cell r="H17">
             <v>2</v>
@@ -2276,7 +2276,7 @@
             <v>10</v>
           </cell>
           <cell r="P17">
-            <v>21.812470504449099</v>
+            <v>20.793378457782499</v>
           </cell>
           <cell r="Q17">
             <v>11.781974280616099</v>
@@ -2285,7 +2285,7 @@
             <v>7.1301895264458901</v>
           </cell>
           <cell r="S17">
-            <v>13.3955877215149</v>
+            <v>13.0898601075149</v>
           </cell>
         </row>
         <row r="18">
@@ -2299,22 +2299,22 @@
             <v>CashFlow</v>
           </cell>
           <cell r="D18">
-            <v>18</v>
+            <v>12</v>
           </cell>
           <cell r="E18">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="F18">
-            <v>13</v>
+            <v>4</v>
           </cell>
           <cell r="G18">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="H18">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="I18">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="J18">
             <v>6</v>
@@ -2335,16 +2335,16 @@
             <v>10</v>
           </cell>
           <cell r="P18">
-            <v>909.23203828066505</v>
+            <v>511.66343592989801</v>
           </cell>
           <cell r="Q18">
-            <v>383.50175019474602</v>
+            <v>264.96792059043599</v>
           </cell>
           <cell r="R18">
-            <v>178.28100586497601</v>
+            <v>154.57697883830301</v>
           </cell>
           <cell r="S18">
-            <v>479.654613321591</v>
+            <v>305.85929266663499</v>
           </cell>
         </row>
         <row r="19">
@@ -2361,19 +2361,19 @@
             <v>25</v>
           </cell>
           <cell r="E19">
+            <v>20</v>
+          </cell>
+          <cell r="F19">
             <v>15</v>
           </cell>
-          <cell r="F19">
+          <cell r="G19">
+            <v>22</v>
+          </cell>
+          <cell r="H19">
             <v>17</v>
           </cell>
-          <cell r="G19">
-            <v>10</v>
-          </cell>
-          <cell r="H19">
-            <v>10</v>
-          </cell>
           <cell r="I19">
-            <v>5</v>
+            <v>12</v>
           </cell>
           <cell r="J19">
             <v>6</v>
@@ -2394,16 +2394,16 @@
             <v>10</v>
           </cell>
           <cell r="P19">
-            <v>427.70336174302798</v>
+            <v>529.12671886748706</v>
           </cell>
           <cell r="Q19">
-            <v>160.92827145451801</v>
+            <v>247.75816005735601</v>
           </cell>
           <cell r="R19">
-            <v>68.909266795727703</v>
+            <v>129.53500014332499</v>
           </cell>
           <cell r="S19">
-            <v>213.35509714343399</v>
+            <v>296.70177972618598</v>
           </cell>
         </row>
       </sheetData>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="E3">
         <f>VLOOKUP(A3,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>150.56025990645</v>
+        <v>107.267688085987</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F38" si="0">D3/E3</f>
-        <v>1.0906596921119704</v>
+        <v>1.5308431611039699</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2815,11 +2815,11 @@
       </c>
       <c r="E4">
         <f>VLOOKUP(A4,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>206.68723638647401</v>
+        <v>188.06746224934301</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5275738188107582</v>
+        <v>1.6788125240278291</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2867,11 +2867,11 @@
       </c>
       <c r="E6">
         <f>VLOOKUP(A6,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>810.91701924479605</v>
+        <v>947.05522201413703</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>3.7687702188758601</v>
+        <v>3.2270134212551227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="E9">
         <f>VLOOKUP(A9,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>288.416153178066</v>
+        <v>336.83597396302798</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.36849393100796529</v>
+        <v>0.31552331183737081</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="E19">
         <f>VLOOKUP(A19,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>202.29366721024701</v>
+        <v>172.28855952094</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>2.5498574149042343</v>
+        <v>2.9939306983498519</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3257,11 +3257,11 @@
       </c>
       <c r="E21">
         <f>VLOOKUP(A21,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>334.51163931970399</v>
+        <v>361.98048738142001</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.3677599885410614</v>
+        <v>0.33985256369202971</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3283,11 +3283,11 @@
       </c>
       <c r="E22">
         <f>VLOOKUP(A22,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>91.633623174662006</v>
+        <v>39.373295787402803</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.59399594187634797</v>
+        <v>1.3824090469609653</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3413,11 +3413,11 @@
       </c>
       <c r="E27">
         <f>VLOOKUP(A27,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>2713.05804072</v>
+        <v>2928.94892864036</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0.9915969247202947</v>
+        <v>0.9185069713777696</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3439,11 +3439,11 @@
       </c>
       <c r="E28">
         <f>VLOOKUP(A28,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>-3.2710116590463398</v>
+        <v>-1.44257447461549</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>-45.417140947123841</v>
+        <v>-102.98254972117874</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="E30">
         <f>VLOOKUP(A30,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>236.517463946399</v>
+        <v>248.71095050406001</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>1.5346858744798173</v>
+        <v>1.4594452325105913</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="E31">
         <f>VLOOKUP(A31,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>211.72091893666899</v>
+        <v>175.27769645976301</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>5.351573404994622</v>
+        <v>6.4642567876432713</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="E34">
         <f>VLOOKUP(A34,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>201.10742077270899</v>
+        <v>102.523805436722</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>1.4717010445636785</v>
+        <v>2.8868417433390783</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3621,11 +3621,11 @@
       </c>
       <c r="E35">
         <f>VLOOKUP(A35,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>13.4774518787281</v>
+        <v>8.9570528943373393</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>1.408278041948942</v>
+        <v>2.1190004978351173</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3647,11 +3647,11 @@
       </c>
       <c r="E36">
         <f>VLOOKUP(A36,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>214.08209308062601</v>
+        <v>109.13824449715599</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>0.88610866148808898</v>
+        <v>1.7381624362959707</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3673,11 +3673,11 @@
       </c>
       <c r="E37">
         <f>VLOOKUP(A37,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>125.15152663678001</v>
+        <v>89.165062089429696</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0.89163911409367902</v>
+        <v>1.2514991154940127</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="E39">
         <f>VLOOKUP(A39,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>13.3955877215149</v>
+        <v>13.0898601075149</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ref="F39:F47" si="1">D39/E39</f>
-        <v>8.4438251580916415</v>
+        <v>8.64103968119678</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3829,11 +3829,11 @@
       </c>
       <c r="E43">
         <f>VLOOKUP(A43,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>479.654613321591</v>
+        <v>305.85929266663499</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>1.3930857613977063</v>
+        <v>2.1846647403821788</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3907,11 +3907,11 @@
       </c>
       <c r="E46">
         <f>VLOOKUP(A46,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>213.35509714343399</v>
+        <v>296.70177972618598</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>1.017318104689287</v>
+        <v>0.73154263938714359</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4920,27 +4920,27 @@
       </c>
       <c r="D2">
         <f>[2]npv!D2</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <f>[2]npv!E2</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <f>[2]npv!F2</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <f>[2]npv!G2</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <f>[2]npv!H2</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <f>[2]npv!I2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <f>[2]npv!J2</f>
@@ -4968,19 +4968,19 @@
       </c>
       <c r="P2">
         <f>[2]npv!P2</f>
-        <v>284.81945398417798</v>
+        <v>184.34308241546901</v>
       </c>
       <c r="Q2">
         <f>[2]npv!Q2</f>
-        <v>120.576607366093</v>
+        <v>91.470527693796996</v>
       </c>
       <c r="R2">
         <f>[2]npv!R2</f>
-        <v>56.279269215865597</v>
+        <v>51.255174279427401</v>
       </c>
       <c r="S2">
         <f>[2]npv!S2</f>
-        <v>150.56025990645</v>
+        <v>107.267688085987</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5002,15 +5002,15 @@
       </c>
       <c r="E3">
         <f>[2]npv!E3</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <f>[2]npv!F3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>[2]npv!G3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f>[2]npv!H3</f>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="I3">
         <f>[2]npv!I3</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f>[2]npv!J3</f>
@@ -5046,19 +5046,19 @@
       </c>
       <c r="P3">
         <f>[2]npv!P3</f>
-        <v>334.94598944940702</v>
+        <v>305.32416689419199</v>
       </c>
       <c r="Q3">
         <f>[2]npv!Q3</f>
-        <v>182.201835350072</v>
+        <v>165.50620010220399</v>
       </c>
       <c r="R3">
         <f>[2]npv!R3</f>
-        <v>111.07568470541101</v>
+        <v>100.892440467347</v>
       </c>
       <c r="S3">
         <f>[2]npv!S3</f>
-        <v>206.68723638647401</v>
+        <v>188.06746224934301</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D4">
         <f>[2]npv!D4</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f>[2]npv!E4</f>
@@ -5084,19 +5084,19 @@
       </c>
       <c r="F4">
         <f>[2]npv!F4</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f>[2]npv!G4</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <f>[2]npv!H4</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <f>[2]npv!I4</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f>[2]npv!J4</f>
@@ -5124,19 +5124,19 @@
       </c>
       <c r="P4">
         <f>[2]npv!P4</f>
-        <v>1534.03655646774</v>
+        <v>1881.39308684616</v>
       </c>
       <c r="Q4">
         <f>[2]npv!Q4</f>
-        <v>649.42517432366003</v>
+        <v>720.35826699548295</v>
       </c>
       <c r="R4">
         <f>[2]npv!R4</f>
-        <v>303.11994191668998</v>
+        <v>314.979963873646</v>
       </c>
       <c r="S4">
         <f>[2]npv!S4</f>
-        <v>810.91701924479605</v>
+        <v>947.05522201413703</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="D5">
         <f>[2]npv!D5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <f>[2]npv!E5</f>
@@ -5162,19 +5162,19 @@
       </c>
       <c r="F5">
         <f>[2]npv!F5</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f>[2]npv!G5</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <f>[2]npv!H5</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <f>[2]npv!I5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>[2]npv!J5</f>
@@ -5202,19 +5202,19 @@
       </c>
       <c r="P5">
         <f>[2]npv!P5</f>
-        <v>545.605668583696</v>
+        <v>669.148807888286</v>
       </c>
       <c r="Q5">
         <f>[2]npv!Q5</f>
-        <v>230.978887001115</v>
+        <v>256.20742362805998</v>
       </c>
       <c r="R5">
         <f>[2]npv!R5</f>
-        <v>107.809659341703</v>
+        <v>112.027873817726</v>
       </c>
       <c r="S5">
         <f>[2]npv!S5</f>
-        <v>288.416153178066</v>
+        <v>336.83597396302798</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5232,23 +5232,23 @@
       </c>
       <c r="D6">
         <f>[2]npv!D6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f>[2]npv!E6</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <f>[2]npv!F6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>[2]npv!G6</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <f>[2]npv!H6</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <f>[2]npv!I6</f>
@@ -5280,19 +5280,19 @@
       </c>
       <c r="P6">
         <f>[2]npv!P6</f>
-        <v>367.72795745525201</v>
+        <v>279.70740005726498</v>
       </c>
       <c r="Q6">
         <f>[2]npv!Q6</f>
-        <v>166.91506004859201</v>
+        <v>151.62019238387799</v>
       </c>
       <c r="R6">
         <f>[2]npv!R6</f>
-        <v>84.030853180782202</v>
+        <v>92.427541834032496</v>
       </c>
       <c r="S6">
         <f>[2]npv!S6</f>
-        <v>202.29366721024701</v>
+        <v>172.28855952094</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5318,19 +5318,19 @@
       </c>
       <c r="F7">
         <f>[2]npv!F7</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <f>[2]npv!G7</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <f>[2]npv!H7</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <f>[2]npv!I7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f>[2]npv!J7</f>
@@ -5362,15 +5362,15 @@
       </c>
       <c r="Q7">
         <f>[2]npv!Q7</f>
-        <v>265.519861278414</v>
+        <v>303.756656725016</v>
       </c>
       <c r="R7">
         <f>[2]npv!R7</f>
-        <v>121.272319063518</v>
+        <v>161.852752007102</v>
       </c>
       <c r="S7">
         <f>[2]npv!S7</f>
-        <v>334.51163931970399</v>
+        <v>361.98048738142001</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5388,27 +5388,27 @@
       </c>
       <c r="D8">
         <f>[2]npv!D8</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f>[2]npv!E8</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f>[2]npv!F8</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <f>[2]npv!G8</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>[2]npv!H8</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f>[2]npv!I8</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f>[2]npv!J8</f>
@@ -5436,19 +5436,19 @@
       </c>
       <c r="P8">
         <f>[2]npv!P8</f>
-        <v>173.34613088085499</v>
+        <v>61.998917149226799</v>
       </c>
       <c r="Q8">
         <f>[2]npv!Q8</f>
-        <v>73.385044698573594</v>
+        <v>35.145553343478603</v>
       </c>
       <c r="R8">
         <f>[2]npv!R8</f>
-        <v>34.252553436585998</v>
+        <v>22.3846643508112</v>
       </c>
       <c r="S8">
         <f>[2]npv!S8</f>
-        <v>91.633623174662006</v>
+        <v>39.373295787402803</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5474,19 +5474,19 @@
       </c>
       <c r="F9">
         <f>[2]npv!F9</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <f>[2]npv!G9</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <f>[2]npv!H9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <f>[2]npv!I9</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <f>[2]npv!J9</f>
@@ -5518,15 +5518,15 @@
       </c>
       <c r="Q9">
         <f>[2]npv!Q9</f>
-        <v>2172.7601582288598</v>
+        <v>2471.34071290063</v>
       </c>
       <c r="R9">
         <f>[2]npv!R9</f>
-        <v>1014.1382856726</v>
+        <v>1335.66717251144</v>
       </c>
       <c r="S9">
         <f>[2]npv!S9</f>
-        <v>2713.05804072</v>
+        <v>2928.94892864036</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5544,27 +5544,27 @@
       </c>
       <c r="D10">
         <f>[2]npv!D10</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>[2]npv!E10</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>[2]npv!F10</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>[2]npv!G10</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f>[2]npv!H10</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>[2]npv!I10</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f>[2]npv!J10</f>
@@ -5592,19 +5592,19 @@
       </c>
       <c r="P10">
         <f>[2]npv!P10</f>
-        <v>-5.2978102793225803</v>
+        <v>-2.0433794339765101</v>
       </c>
       <c r="Q10">
         <f>[2]npv!Q10</f>
-        <v>-2.88427463790243</v>
+        <v>-1.33655007002237</v>
       </c>
       <c r="R10">
         <f>[2]npv!R10</f>
-        <v>-1.7598624002953001</v>
+        <v>-0.98313538804530498</v>
       </c>
       <c r="S10">
         <f>[2]npv!S10</f>
-        <v>-3.2710116590463398</v>
+        <v>-1.44257447461549</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="F11">
         <f>[2]npv!F11</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <f>[2]npv!G11</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <f>[2]npv!H11</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <f>[2]npv!I11</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f>[2]npv!J11</f>
@@ -5674,15 +5674,15 @@
       </c>
       <c r="Q11">
         <f>[2]npv!Q11</f>
-        <v>189.41567584440099</v>
+        <v>206.469556484902</v>
       </c>
       <c r="R11">
         <f>[2]npv!R11</f>
-        <v>88.409983059034801</v>
+        <v>106.31643073057</v>
       </c>
       <c r="S11">
         <f>[2]npv!S11</f>
-        <v>236.517463946399</v>
+        <v>248.71095050406001</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5704,23 +5704,23 @@
       </c>
       <c r="E12">
         <f>[2]npv!E12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <f>[2]npv!F12</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>[2]npv!G12</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <f>[2]npv!H12</f>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <f>[2]npv!I12</f>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="J12">
         <f>[2]npv!J12</f>
@@ -5748,19 +5748,19 @@
       </c>
       <c r="P12">
         <f>[2]npv!P12</f>
-        <v>553.953778990302</v>
+        <v>358.53431254889699</v>
       </c>
       <c r="Q12">
         <f>[2]npv!Q12</f>
-        <v>98.076141206822598</v>
+        <v>134.33185323863401</v>
       </c>
       <c r="R12">
         <f>[2]npv!R12</f>
-        <v>21.0144291894979</v>
+        <v>46.615537998802701</v>
       </c>
       <c r="S12">
         <f>[2]npv!S12</f>
-        <v>211.72091893666899</v>
+        <v>175.27769645976301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5778,27 +5778,27 @@
       </c>
       <c r="D13">
         <f>[2]npv!D13</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <f>[2]npv!E13</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <f>[2]npv!F13</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f>[2]npv!G13</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>[2]npv!H13</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <f>[2]npv!I13</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f>[2]npv!J13</f>
@@ -5826,19 +5826,19 @@
       </c>
       <c r="P13">
         <f>[2]npv!P13</f>
-        <v>380.44106600400198</v>
+        <v>171.70157231237999</v>
       </c>
       <c r="Q13">
         <f>[2]npv!Q13</f>
-        <v>161.05744323226699</v>
+        <v>88.8819648768349</v>
       </c>
       <c r="R13">
         <f>[2]npv!R13</f>
-        <v>75.173745595339298</v>
+        <v>51.535159307582497</v>
       </c>
       <c r="S13">
         <f>[2]npv!S13</f>
-        <v>201.10742077270899</v>
+        <v>102.523805436722</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5856,27 +5856,27 @@
       </c>
       <c r="D14">
         <f>[2]npv!D14</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <f>[2]npv!E14</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <f>[2]npv!F14</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f>[2]npv!G14</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <f>[2]npv!H14</f>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <f>[2]npv!I14</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <f>[2]npv!J14</f>
@@ -5904,19 +5904,19 @@
       </c>
       <c r="P14">
         <f>[2]npv!P14</f>
-        <v>32.639678313274899</v>
+        <v>15.000809409011699</v>
       </c>
       <c r="Q14">
         <f>[2]npv!Q14</f>
-        <v>7.7790622461947203</v>
+        <v>7.7652254260675599</v>
       </c>
       <c r="R14">
         <f>[2]npv!R14</f>
-        <v>1.91307828755934</v>
+        <v>4.5023996706893303</v>
       </c>
       <c r="S14">
         <f>[2]npv!S14</f>
-        <v>13.4774518787281</v>
+        <v>8.9570528943373393</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5934,27 +5934,27 @@
       </c>
       <c r="D15">
         <f>[2]npv!D15</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <f>[2]npv!E15</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <f>[2]npv!F15</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>[2]npv!G15</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <f>[2]npv!H15</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <f>[2]npv!I15</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <f>[2]npv!J15</f>
@@ -5982,19 +5982,19 @@
       </c>
       <c r="P15">
         <f>[2]npv!P15</f>
-        <v>404.98565090748502</v>
+        <v>182.779093106727</v>
       </c>
       <c r="Q15">
         <f>[2]npv!Q15</f>
-        <v>171.44824602144601</v>
+        <v>94.616285191469402</v>
       </c>
       <c r="R15">
         <f>[2]npv!R15</f>
-        <v>80.023664666006297</v>
+        <v>54.860008295168399</v>
       </c>
       <c r="S15">
         <f>[2]npv!S15</f>
-        <v>214.08209308062601</v>
+        <v>109.13824449715599</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6012,27 +6012,27 @@
       </c>
       <c r="D16">
         <f>[2]npv!D16</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <f>[2]npv!E16</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <f>[2]npv!F16</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <f>[2]npv!G16</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <f>[2]npv!H16</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <f>[2]npv!I16</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <f>[2]npv!J16</f>
@@ -6060,19 +6060,19 @@
       </c>
       <c r="P16">
         <f>[2]npv!P16</f>
-        <v>236.75297521485601</v>
+        <v>153.233118776233</v>
       </c>
       <c r="Q16">
         <f>[2]npv!Q16</f>
-        <v>100.22795190395099</v>
+        <v>76.033849770606807</v>
       </c>
       <c r="R16">
         <f>[2]npv!R16</f>
-        <v>46.781511035809203</v>
+        <v>42.605288494389399</v>
       </c>
       <c r="S16">
         <f>[2]npv!S16</f>
-        <v>125.15152663678001</v>
+        <v>89.165062089429696</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -6094,15 +6094,15 @@
       </c>
       <c r="E17">
         <f>[2]npv!E17</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <f>[2]npv!F17</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f>[2]npv!G17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <f>[2]npv!H17</f>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="P17">
         <f>[2]npv!P17</f>
-        <v>21.812470504449099</v>
+        <v>20.793378457782499</v>
       </c>
       <c r="Q17">
         <f>[2]npv!Q17</f>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="S17">
         <f>[2]npv!S17</f>
-        <v>13.3955877215149</v>
+        <v>13.0898601075149</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -6168,27 +6168,27 @@
       </c>
       <c r="D18">
         <f>[2]npv!D18</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <f>[2]npv!E18</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <f>[2]npv!F18</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <f>[2]npv!G18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>[2]npv!H18</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <f>[2]npv!I18</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <f>[2]npv!J18</f>
@@ -6216,19 +6216,19 @@
       </c>
       <c r="P18">
         <f>[2]npv!P18</f>
-        <v>909.23203828066505</v>
+        <v>511.66343592989801</v>
       </c>
       <c r="Q18">
         <f>[2]npv!Q18</f>
-        <v>383.50175019474602</v>
+        <v>264.96792059043599</v>
       </c>
       <c r="R18">
         <f>[2]npv!R18</f>
-        <v>178.28100586497601</v>
+        <v>154.57697883830301</v>
       </c>
       <c r="S18">
         <f>[2]npv!S18</f>
-        <v>479.654613321591</v>
+        <v>305.85929266663499</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -6250,23 +6250,23 @@
       </c>
       <c r="E19">
         <f>[2]npv!E19</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <f>[2]npv!F19</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <f>[2]npv!G19</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <f>[2]npv!H19</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <f>[2]npv!I19</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <f>[2]npv!J19</f>
@@ -6294,19 +6294,19 @@
       </c>
       <c r="P19">
         <f>[2]npv!P19</f>
-        <v>427.70336174302798</v>
+        <v>529.12671886748706</v>
       </c>
       <c r="Q19">
         <f>[2]npv!Q19</f>
-        <v>160.92827145451801</v>
+        <v>247.75816005735601</v>
       </c>
       <c r="R19">
         <f>[2]npv!R19</f>
-        <v>68.909266795727703</v>
+        <v>129.53500014332499</v>
       </c>
       <c r="S19">
         <f>[2]npv!S19</f>
-        <v>213.35509714343399</v>
+        <v>296.70177972618598</v>
       </c>
     </row>
   </sheetData>

--- a/dashboards/Dashboard_CashFlow.xlsx
+++ b/dashboards/Dashboard_CashFlow.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telamon/DataScience/repositories/investing/dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BADEAF-4F4A-4646-ADB1-8161EE368B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28293EB3-0AED-054B-A871-A13408F87D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="3660" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Price" sheetId="4" r:id="rId2"/>
-    <sheet name="NPV" sheetId="5" r:id="rId3"/>
+    <sheet name="forex" sheetId="6" r:id="rId2"/>
+    <sheet name="Price" sheetId="4" r:id="rId3"/>
+    <sheet name="NPV" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$C$38</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Ticker</t>
   </si>
@@ -47,6 +48,36 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>AAL.L</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>ALA.TO</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>BP.L</t>
+  </si>
+  <si>
+    <t>BTB-UN.TO</t>
+  </si>
+  <si>
+    <t>GLEN.L</t>
+  </si>
+  <si>
+    <t>IAG.L</t>
+  </si>
+  <si>
+    <t>NFI.TO</t>
+  </si>
+  <si>
+    <t>PENCE</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -3957,6 +3988,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32FF6B-95FA-834C-9E15-4B0CB838C76E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F6B45-0C58-8944-98B3-2DECD955E5A1}">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -4817,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F1737-D837-3F4B-A0D1-B5F78C88F34D}">
   <dimension ref="A1:S19"/>
   <sheetViews>

--- a/dashboards/Dashboard_CashFlow.xlsx
+++ b/dashboards/Dashboard_CashFlow.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telamon/DataScience/repositories/investing/dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28293EB3-0AED-054B-A871-A13408F87D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C5113-D983-BB4F-B0B6-98C78F2684C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3660" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="forex" sheetId="6" r:id="rId2"/>
-    <sheet name="Price" sheetId="4" r:id="rId3"/>
-    <sheet name="NPV" sheetId="5" r:id="rId4"/>
+    <sheet name="Price" sheetId="4" r:id="rId2"/>
+    <sheet name="NPV" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$1:$C$38</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ticker</t>
   </si>
@@ -48,36 +47,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>AAL.L</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>ALA.TO</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>BP.L</t>
-  </si>
-  <si>
-    <t>BTB-UN.TO</t>
-  </si>
-  <si>
-    <t>GLEN.L</t>
-  </si>
-  <si>
-    <t>IAG.L</t>
-  </si>
-  <si>
-    <t>NFI.TO</t>
-  </si>
-  <si>
-    <t>PENCE</t>
   </si>
 </sst>
 </file>
@@ -655,6 +624,9 @@
             <v>type</v>
           </cell>
           <cell r="D1" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="E1" t="str">
             <v>price</v>
           </cell>
         </row>
@@ -668,8 +640,11 @@
           <cell r="C2" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D2">
-            <v>3823</v>
+          <cell r="D2" t="str">
+            <v>GBP</v>
+          </cell>
+          <cell r="E2">
+            <v>54.053039032118598</v>
           </cell>
         </row>
         <row r="3">
@@ -682,8 +657,11 @@
           <cell r="C3" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D3">
-            <v>164.21000671386699</v>
+          <cell r="D3" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E3">
+            <v>166.55999755859301</v>
           </cell>
         </row>
         <row r="4">
@@ -696,8 +674,11 @@
           <cell r="C4" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D4">
-            <v>315.73001098632801</v>
+          <cell r="D4" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E4">
+            <v>318.329986572265</v>
           </cell>
         </row>
         <row r="5">
@@ -710,8 +691,11 @@
           <cell r="C5" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D5">
-            <v>27.889999389648398</v>
+          <cell r="D5" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="E5">
+            <v>22.3176358651871</v>
           </cell>
         </row>
         <row r="6">
@@ -724,8 +708,11 @@
           <cell r="C6" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D6">
-            <v>3056.15991210937</v>
+          <cell r="D6" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E6">
+            <v>3041.05004882812</v>
           </cell>
         </row>
         <row r="7">
@@ -738,8 +725,11 @@
           <cell r="C7" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D7">
-            <v>14.5100002288818</v>
+          <cell r="D7" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E7">
+            <v>14.5900001525878</v>
           </cell>
         </row>
         <row r="8">
@@ -752,8 +742,11 @@
           <cell r="C8" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D8">
-            <v>33.759998321533203</v>
+          <cell r="D8" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E8">
+            <v>35.080001831054602</v>
           </cell>
         </row>
         <row r="9">
@@ -766,8 +759,11 @@
           <cell r="C9" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D9">
-            <v>106.27960205078099</v>
+          <cell r="D9" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E9">
+            <v>105.419998168945</v>
           </cell>
         </row>
         <row r="10">
@@ -780,8 +776,11 @@
           <cell r="C10" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D10">
-            <v>36.784999847412102</v>
+          <cell r="D10" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E10">
+            <v>37.549999237060497</v>
           </cell>
         </row>
         <row r="11">
@@ -794,8 +793,11 @@
           <cell r="C11" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D11">
-            <v>70.135002136230398</v>
+          <cell r="D11" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E11">
+            <v>71.269996643066406</v>
           </cell>
         </row>
         <row r="12">
@@ -806,10 +808,13 @@
             <v>Bank of New York Mellon Corporation</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D12">
-            <v>52.939998626708899</v>
+            <v>Dividend</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E12">
+            <v>52.139999389648402</v>
           </cell>
         </row>
         <row r="13">
@@ -820,10 +825,13 @@
             <v>BlackRock</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D13">
-            <v>742.39001464843705</v>
+            <v>Dividend</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E13">
+            <v>738.03997802734295</v>
           </cell>
         </row>
         <row r="14">
@@ -834,10 +842,13 @@
             <v>Bank of Montreal</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D14">
-            <v>113.550003051757</v>
+            <v>Dividend</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E14">
+            <v>116.889999389648</v>
           </cell>
         </row>
         <row r="15">
@@ -848,10 +859,13 @@
             <v>Bank of Nova Scotia</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D15">
-            <v>71.959999084472599</v>
+            <v>Dividend</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E15">
+            <v>73.800003051757798</v>
           </cell>
         </row>
         <row r="16">
@@ -864,8 +878,11 @@
           <cell r="C16" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D16">
-            <v>363.54998779296801</v>
+          <cell r="D16" t="str">
+            <v>GBP</v>
+          </cell>
+          <cell r="E16">
+            <v>5.1033801044044802</v>
           </cell>
         </row>
         <row r="17">
@@ -876,10 +893,13 @@
             <v>Berkshire Hathaway</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D17">
-            <v>319.55999755859301</v>
+            <v>Insurance</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E17">
+            <v>323.64001464843699</v>
           </cell>
         </row>
         <row r="18">
@@ -892,8 +912,11 @@
           <cell r="C18" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D18">
-            <v>4.0700001716613698</v>
+          <cell r="D18" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="E18">
+            <v>3.2163883555280601</v>
           </cell>
         </row>
         <row r="19">
@@ -906,8 +929,11 @@
           <cell r="C19" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D19">
-            <v>515.82000732421795</v>
+          <cell r="D19" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E19">
+            <v>528</v>
           </cell>
         </row>
         <row r="20">
@@ -920,8 +946,11 @@
           <cell r="C20" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D20">
-            <v>143.00500488281199</v>
+          <cell r="D20" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E20">
+            <v>154.13999938964801</v>
           </cell>
         </row>
         <row r="21">
@@ -934,8 +963,11 @@
           <cell r="C21" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D21">
-            <v>123.01999664306599</v>
+          <cell r="D21" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E21">
+            <v>116.120002746582</v>
           </cell>
         </row>
         <row r="22">
@@ -948,8 +980,11 @@
           <cell r="C22" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D22">
-            <v>54.430000305175703</v>
+          <cell r="D22" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E22">
+            <v>55.090000152587798</v>
           </cell>
         </row>
         <row r="23">
@@ -962,8 +997,11 @@
           <cell r="C23" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D23">
-            <v>42.939998626708899</v>
+          <cell r="D23" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E23">
+            <v>44.400001525878899</v>
           </cell>
         </row>
         <row r="24">
@@ -976,8 +1014,11 @@
           <cell r="C24" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D24">
-            <v>45.9799995422363</v>
+          <cell r="D24" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E24">
+            <v>46.349998474121001</v>
           </cell>
         </row>
         <row r="25">
@@ -990,8 +1031,11 @@
           <cell r="C25" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D25">
-            <v>442.14999389648398</v>
+          <cell r="D25" t="str">
+            <v>GBP</v>
+          </cell>
+          <cell r="E25">
+            <v>6.35546433631339</v>
           </cell>
         </row>
         <row r="26">
@@ -1004,8 +1048,11 @@
           <cell r="C26" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D26">
-            <v>15.569999694824199</v>
+          <cell r="D26" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E26">
+            <v>15.649999618530201</v>
           </cell>
         </row>
         <row r="27">
@@ -1018,8 +1065,11 @@
           <cell r="C27" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D27">
-            <v>2690.26000976562</v>
+          <cell r="D27" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E27">
+            <v>2695.03002929687</v>
           </cell>
         </row>
         <row r="28">
@@ -1032,8 +1082,11 @@
           <cell r="C28" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D28">
-            <v>148.55999755859301</v>
+          <cell r="D28" t="str">
+            <v>GBP</v>
+          </cell>
+          <cell r="E28">
+            <v>1.8456866097728399</v>
           </cell>
         </row>
         <row r="29">
@@ -1044,10 +1097,13 @@
             <v>JPMorgan</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D29">
-            <v>144.22999572753901</v>
+            <v>Dividend</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E29">
+            <v>139.27999877929599</v>
           </cell>
         </row>
         <row r="30">
@@ -1060,8 +1116,11 @@
           <cell r="C30" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D30">
-            <v>362.98001098632801</v>
+          <cell r="D30" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E30">
+            <v>344.08999633789</v>
           </cell>
         </row>
         <row r="31">
@@ -1074,8 +1133,11 @@
           <cell r="C31" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D31">
-            <v>1133.0400390625</v>
+          <cell r="D31" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E31">
+            <v>1140.90002441406</v>
           </cell>
         </row>
         <row r="32">
@@ -1086,10 +1148,13 @@
             <v>Manulife</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D32">
-            <v>20.215000152587798</v>
+            <v>Insurance</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E32">
+            <v>20.0100002288818</v>
           </cell>
         </row>
         <row r="33">
@@ -1100,10 +1165,13 @@
             <v>Markel</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D33">
-            <v>1232.30004882812</v>
+            <v>Insurance</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E33">
+            <v>1258.2099609375</v>
           </cell>
         </row>
         <row r="34">
@@ -1116,8 +1184,11 @@
           <cell r="C34" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D34">
-            <v>295.97000122070301</v>
+          <cell r="D34" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E34">
+            <v>300.19000244140602</v>
           </cell>
         </row>
         <row r="35">
@@ -1130,8 +1201,11 @@
           <cell r="C35" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D35">
-            <v>18.9799995422363</v>
+          <cell r="D35" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="E35">
+            <v>14.576230654318399</v>
           </cell>
         </row>
         <row r="36">
@@ -1144,8 +1218,11 @@
           <cell r="C36" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D36">
-            <v>189.69999694824199</v>
+          <cell r="D36" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E36">
+            <v>188.350006103515</v>
           </cell>
         </row>
         <row r="37">
@@ -1158,8 +1235,11 @@
           <cell r="C37" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D37">
-            <v>111.58999633789</v>
+          <cell r="D37" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E37">
+            <v>106.61000061035099</v>
           </cell>
         </row>
         <row r="38">
@@ -1172,8 +1252,11 @@
           <cell r="C38" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D38">
-            <v>78.459999084472599</v>
+          <cell r="D38" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E38">
+            <v>83.540000915527301</v>
           </cell>
         </row>
         <row r="39">
@@ -1186,8 +1269,11 @@
           <cell r="C39" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D39">
-            <v>113.11000061035099</v>
+          <cell r="D39" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E39">
+            <v>113.19000244140599</v>
           </cell>
         </row>
         <row r="40">
@@ -1200,8 +1286,11 @@
           <cell r="C40" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D40">
-            <v>52.865001678466797</v>
+          <cell r="D40" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E40">
+            <v>54.619998931884702</v>
           </cell>
         </row>
         <row r="41">
@@ -1212,10 +1301,13 @@
             <v>SunLife</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Financial</v>
-          </cell>
-          <cell r="D41">
-            <v>52.340000152587798</v>
+            <v>Insurance</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E41">
+            <v>52.150001525878899</v>
           </cell>
         </row>
         <row r="42">
@@ -1228,8 +1320,11 @@
           <cell r="C42" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D42">
-            <v>23.610000610351499</v>
+          <cell r="D42" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E42">
+            <v>23.819999694824201</v>
           </cell>
         </row>
         <row r="43">
@@ -1242,8 +1337,11 @@
           <cell r="C43" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D43">
-            <v>668.20001220703102</v>
+          <cell r="D43" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E43">
+            <v>675.510009765625</v>
           </cell>
         </row>
         <row r="44">
@@ -1256,8 +1354,11 @@
           <cell r="C44" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D44">
-            <v>53.270000457763601</v>
+          <cell r="D44" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E44">
+            <v>55.029998779296797</v>
           </cell>
         </row>
         <row r="45">
@@ -1270,8 +1371,11 @@
           <cell r="C45" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D45">
-            <v>25.270000457763601</v>
+          <cell r="D45" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E45">
+            <v>25.670000076293899</v>
           </cell>
         </row>
         <row r="46">
@@ -1284,8 +1388,11 @@
           <cell r="C46" t="str">
             <v>CashFlow</v>
           </cell>
-          <cell r="D46">
-            <v>217.05000305175699</v>
+          <cell r="D46" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E46">
+            <v>208.47999572753901</v>
           </cell>
         </row>
         <row r="47">
@@ -1298,8 +1405,11 @@
           <cell r="C47" t="str">
             <v>Dividend</v>
           </cell>
-          <cell r="D47">
-            <v>78.639999389648395</v>
+          <cell r="D47" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="E47">
+            <v>80.529998779296804</v>
           </cell>
         </row>
       </sheetData>
@@ -1413,7 +1523,7 @@
             <v>2</v>
           </cell>
           <cell r="M2">
-            <v>0</v>
+            <v>22</v>
           </cell>
           <cell r="N2">
             <v>5.57</v>
@@ -1422,16 +1532,16 @@
             <v>10</v>
           </cell>
           <cell r="P2">
-            <v>184.34308241546901</v>
+            <v>199.009953648649</v>
           </cell>
           <cell r="Q2">
-            <v>91.470527693796996</v>
+            <v>102.222515037573</v>
           </cell>
           <cell r="R2">
-            <v>51.255174279427401</v>
+            <v>62.1796289320177</v>
           </cell>
           <cell r="S2">
-            <v>107.267688085987</v>
+            <v>119.24588078922901</v>
           </cell>
         </row>
         <row r="3">
@@ -1472,7 +1582,7 @@
             <v>2</v>
           </cell>
           <cell r="M3">
-            <v>0</v>
+            <v>30</v>
           </cell>
           <cell r="N3">
             <v>13.23</v>
@@ -1481,16 +1591,16 @@
             <v>10</v>
           </cell>
           <cell r="P3">
-            <v>305.32416689419199</v>
+            <v>343.44833346898997</v>
           </cell>
           <cell r="Q3">
-            <v>165.50620010220399</v>
+            <v>196.91843065334501</v>
           </cell>
           <cell r="R3">
-            <v>100.892440467347</v>
+            <v>132.27115346514501</v>
           </cell>
           <cell r="S3">
-            <v>188.06746224934301</v>
+            <v>221.48321834157801</v>
           </cell>
         </row>
         <row r="4">
@@ -1649,7 +1759,7 @@
             <v>2</v>
           </cell>
           <cell r="M6">
-            <v>0</v>
+            <v>30</v>
           </cell>
           <cell r="N6">
             <v>12.12</v>
@@ -1658,16 +1768,16 @@
             <v>10</v>
           </cell>
           <cell r="P6">
-            <v>279.70740005726498</v>
+            <v>314.63294041150101</v>
           </cell>
           <cell r="Q6">
-            <v>151.62019238387799</v>
+            <v>180.39692966882399</v>
           </cell>
           <cell r="R6">
-            <v>92.427541834032496</v>
+            <v>121.17357369596</v>
           </cell>
           <cell r="S6">
-            <v>172.28855952094</v>
+            <v>202.90072609976801</v>
           </cell>
         </row>
         <row r="7">
@@ -1708,7 +1818,7 @@
             <v>2</v>
           </cell>
           <cell r="M7">
-            <v>0</v>
+            <v>10</v>
           </cell>
           <cell r="N7">
             <v>19.329999999999998</v>
@@ -1717,16 +1827,16 @@
             <v>10</v>
           </cell>
           <cell r="P7">
-            <v>639.73999696427597</v>
+            <v>662.87616645484104</v>
           </cell>
           <cell r="Q7">
-            <v>303.756656725016</v>
+            <v>320.49005408064301</v>
           </cell>
           <cell r="R7">
-            <v>161.852752007102</v>
+            <v>178.27371676840301</v>
           </cell>
           <cell r="S7">
-            <v>361.98048738142001</v>
+            <v>380.54098659923</v>
           </cell>
         </row>
         <row r="8">
@@ -1767,7 +1877,7 @@
             <v>2</v>
           </cell>
           <cell r="M8">
-            <v>0</v>
+            <v>20</v>
           </cell>
           <cell r="N8">
             <v>3.39</v>
@@ -1776,16 +1886,16 @@
             <v>10</v>
           </cell>
           <cell r="P8">
-            <v>61.998917149226799</v>
+            <v>67.694699873139598</v>
           </cell>
           <cell r="Q8">
-            <v>35.145553343478603</v>
+            <v>40.1272701587787</v>
           </cell>
           <cell r="R8">
-            <v>22.3846643508112</v>
+            <v>27.3121838751029</v>
           </cell>
           <cell r="S8">
-            <v>39.373295787402803</v>
+            <v>44.5529731879842</v>
           </cell>
         </row>
         <row r="9">
@@ -1944,7 +2054,7 @@
             <v>2</v>
           </cell>
           <cell r="M11">
-            <v>0</v>
+            <v>20</v>
           </cell>
           <cell r="N11">
             <v>8.75</v>
@@ -1953,16 +2063,16 @@
             <v>10</v>
           </cell>
           <cell r="P11">
-            <v>447.42732896976003</v>
+            <v>474.35172893690498</v>
           </cell>
           <cell r="Q11">
-            <v>206.469556484902</v>
+            <v>225.78868523556099</v>
           </cell>
           <cell r="R11">
-            <v>106.31643073057</v>
+            <v>124.374852687743</v>
           </cell>
           <cell r="S11">
-            <v>248.71095050406001</v>
+            <v>269.93344858161902</v>
           </cell>
         </row>
         <row r="12">
@@ -1982,7 +2092,7 @@
             <v>10</v>
           </cell>
           <cell r="F12">
-            <v>0</v>
+            <v>-5</v>
           </cell>
           <cell r="G12">
             <v>23</v>
@@ -1991,7 +2101,7 @@
             <v>8</v>
           </cell>
           <cell r="I12">
-            <v>-2</v>
+            <v>-7</v>
           </cell>
           <cell r="J12">
             <v>6</v>
@@ -2015,13 +2125,13 @@
             <v>358.53431254889699</v>
           </cell>
           <cell r="Q12">
-            <v>134.33185323863401</v>
+            <v>103.943427335102</v>
           </cell>
           <cell r="R12">
-            <v>46.615537998802701</v>
+            <v>35.876912810542002</v>
           </cell>
           <cell r="S12">
-            <v>175.27769645976301</v>
+            <v>159.90073854187199</v>
           </cell>
         </row>
         <row r="13">
@@ -2062,7 +2172,7 @@
             <v>2</v>
           </cell>
           <cell r="M13">
-            <v>0</v>
+            <v>30</v>
           </cell>
           <cell r="N13">
             <v>7.44</v>
@@ -2071,16 +2181,16 @@
             <v>10</v>
           </cell>
           <cell r="P13">
-            <v>171.70157231237999</v>
+            <v>193.14101292587199</v>
           </cell>
           <cell r="Q13">
-            <v>88.8819648768349</v>
+            <v>106.32519162000401</v>
           </cell>
           <cell r="R13">
-            <v>51.535159307582497</v>
+            <v>68.354060899741796</v>
           </cell>
           <cell r="S13">
-            <v>102.523805436722</v>
+            <v>120.978598795685</v>
           </cell>
         </row>
         <row r="14">
@@ -2121,7 +2231,7 @@
             <v>2</v>
           </cell>
           <cell r="M14">
-            <v>0</v>
+            <v>50</v>
           </cell>
           <cell r="N14">
             <v>0.65</v>
@@ -2130,16 +2240,16 @@
             <v>10</v>
           </cell>
           <cell r="P14">
-            <v>15.000809409011699</v>
+            <v>18.122591756406301</v>
           </cell>
           <cell r="Q14">
-            <v>7.7652254260675599</v>
+            <v>10.305121793240501</v>
           </cell>
           <cell r="R14">
-            <v>4.5023996706893303</v>
+            <v>6.9513884777913804</v>
           </cell>
           <cell r="S14">
-            <v>8.9570528943373393</v>
+            <v>11.6442427875555</v>
           </cell>
         </row>
         <row r="15">
@@ -2298,7 +2408,7 @@
             <v>2</v>
           </cell>
           <cell r="M17">
-            <v>0</v>
+            <v>30</v>
           </cell>
           <cell r="N17">
             <v>1.25</v>
@@ -2307,16 +2417,16 @@
             <v>10</v>
           </cell>
           <cell r="P17">
-            <v>20.793378457782499</v>
+            <v>23.794336858391599</v>
           </cell>
           <cell r="Q17">
-            <v>11.781974280616099</v>
+            <v>14.472203238576601</v>
           </cell>
           <cell r="R17">
-            <v>7.1301895264458901</v>
+            <v>9.6359351896405894</v>
           </cell>
           <cell r="S17">
-            <v>13.0898601075149</v>
+            <v>15.817962909840301</v>
           </cell>
         </row>
         <row r="18">
@@ -2416,7 +2526,7 @@
             <v>2</v>
           </cell>
           <cell r="M19">
-            <v>0</v>
+            <v>20</v>
           </cell>
           <cell r="N19">
             <v>6.82</v>
@@ -2425,16 +2535,1432 @@
             <v>10</v>
           </cell>
           <cell r="P19">
-            <v>529.12671886748706</v>
+            <v>556.20392856052001</v>
           </cell>
           <cell r="Q19">
-            <v>247.75816005735601</v>
+            <v>267.31158114384903</v>
           </cell>
           <cell r="R19">
-            <v>129.53500014332499</v>
+            <v>147.57606748050901</v>
           </cell>
           <cell r="S19">
-            <v>296.70177972618598</v>
+            <v>318.05863126984798</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>AAL.L</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>AngloAmerican</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D20">
+            <v>5</v>
+          </cell>
+          <cell r="E20">
+            <v>5</v>
+          </cell>
+          <cell r="F20">
+            <v>3</v>
+          </cell>
+          <cell r="G20">
+            <v>3</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>6</v>
+          </cell>
+          <cell r="K20">
+            <v>4</v>
+          </cell>
+          <cell r="L20">
+            <v>2</v>
+          </cell>
+          <cell r="M20">
+            <v>100</v>
+          </cell>
+          <cell r="N20">
+            <v>2.89</v>
+          </cell>
+          <cell r="O20">
+            <v>10</v>
+          </cell>
+          <cell r="P20">
+            <v>70.672209294452898</v>
+          </cell>
+          <cell r="Q20">
+            <v>46.446096467571302</v>
+          </cell>
+          <cell r="R20">
+            <v>31.964105292741099</v>
+          </cell>
+          <cell r="S20">
+            <v>49.3693329631867</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>ALA.TO</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>AltaGas</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D21">
+            <v>5</v>
+          </cell>
+          <cell r="E21">
+            <v>6</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>3</v>
+          </cell>
+          <cell r="H21">
+            <v>-3</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>6</v>
+          </cell>
+          <cell r="K21">
+            <v>4</v>
+          </cell>
+          <cell r="L21">
+            <v>2</v>
+          </cell>
+          <cell r="M21">
+            <v>100</v>
+          </cell>
+          <cell r="N21">
+            <v>0.76</v>
+          </cell>
+          <cell r="O21">
+            <v>10</v>
+          </cell>
+          <cell r="P21">
+            <v>19.272526424083001</v>
+          </cell>
+          <cell r="Q21">
+            <v>10.7143164074824</v>
+          </cell>
+          <cell r="R21">
+            <v>7.3914025728896604</v>
+          </cell>
+          <cell r="S21">
+            <v>12.284905262084701</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>AQN</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Algonquin</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D22">
+            <v>9</v>
+          </cell>
+          <cell r="E22">
+            <v>8</v>
+          </cell>
+          <cell r="F22">
+            <v>7</v>
+          </cell>
+          <cell r="G22">
+            <v>6</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+          <cell r="I22">
+            <v>4</v>
+          </cell>
+          <cell r="J22">
+            <v>6</v>
+          </cell>
+          <cell r="K22">
+            <v>4</v>
+          </cell>
+          <cell r="L22">
+            <v>2</v>
+          </cell>
+          <cell r="M22">
+            <v>100</v>
+          </cell>
+          <cell r="N22">
+            <v>0.61</v>
+          </cell>
+          <cell r="O22">
+            <v>10</v>
+          </cell>
+          <cell r="P22">
+            <v>19.8161914529467</v>
+          </cell>
+          <cell r="Q22">
+            <v>12.840685535595201</v>
+          </cell>
+          <cell r="R22">
+            <v>9.3637307021371594</v>
+          </cell>
+          <cell r="S22">
+            <v>13.890250860763199</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>AY</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Atlantica</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D23">
+            <v>4</v>
+          </cell>
+          <cell r="E23">
+            <v>3</v>
+          </cell>
+          <cell r="F23">
+            <v>2</v>
+          </cell>
+          <cell r="G23">
+            <v>1</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>-1</v>
+          </cell>
+          <cell r="J23">
+            <v>6</v>
+          </cell>
+          <cell r="K23">
+            <v>4</v>
+          </cell>
+          <cell r="L23">
+            <v>2</v>
+          </cell>
+          <cell r="M23">
+            <v>100</v>
+          </cell>
+          <cell r="N23">
+            <v>1.67</v>
+          </cell>
+          <cell r="O23">
+            <v>10</v>
+          </cell>
+          <cell r="P23">
+            <v>36.345314058533702</v>
+          </cell>
+          <cell r="Q23">
+            <v>24.109208968623101</v>
+          </cell>
+          <cell r="R23">
+            <v>17.959193438724299</v>
+          </cell>
+          <cell r="S23">
+            <v>25.9350358366266</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>BEPC</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Brookfield Renewable</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D24">
+            <v>6</v>
+          </cell>
+          <cell r="E24">
+            <v>5</v>
+          </cell>
+          <cell r="F24">
+            <v>4</v>
+          </cell>
+          <cell r="G24">
+            <v>3</v>
+          </cell>
+          <cell r="H24">
+            <v>2</v>
+          </cell>
+          <cell r="I24">
+            <v>1</v>
+          </cell>
+          <cell r="J24">
+            <v>6</v>
+          </cell>
+          <cell r="K24">
+            <v>4</v>
+          </cell>
+          <cell r="L24">
+            <v>2</v>
+          </cell>
+          <cell r="M24">
+            <v>100</v>
+          </cell>
+          <cell r="N24">
+            <v>1.23</v>
+          </cell>
+          <cell r="O24">
+            <v>10</v>
+          </cell>
+          <cell r="P24">
+            <v>31.428422289215501</v>
+          </cell>
+          <cell r="Q24">
+            <v>20.638145014370298</v>
+          </cell>
+          <cell r="R24">
+            <v>15.234952269301299</v>
+          </cell>
+          <cell r="S24">
+            <v>22.2542703733032</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>BIPC</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Brookfield Infrastructure</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D25">
+            <v>9</v>
+          </cell>
+          <cell r="E25">
+            <v>8</v>
+          </cell>
+          <cell r="F25">
+            <v>7</v>
+          </cell>
+          <cell r="G25">
+            <v>6</v>
+          </cell>
+          <cell r="H25">
+            <v>5</v>
+          </cell>
+          <cell r="I25">
+            <v>4</v>
+          </cell>
+          <cell r="J25">
+            <v>6</v>
+          </cell>
+          <cell r="K25">
+            <v>4</v>
+          </cell>
+          <cell r="L25">
+            <v>2</v>
+          </cell>
+          <cell r="M25">
+            <v>100</v>
+          </cell>
+          <cell r="N25">
+            <v>2.0699999999999998</v>
+          </cell>
+          <cell r="O25">
+            <v>10</v>
+          </cell>
+          <cell r="P25">
+            <v>67.245108700983195</v>
+          </cell>
+          <cell r="Q25">
+            <v>43.574129604397001</v>
+          </cell>
+          <cell r="R25">
+            <v>31.7752828744654</v>
+          </cell>
+          <cell r="S25">
+            <v>47.1357693143934</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>BP.L</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>BP</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D26">
+            <v>5</v>
+          </cell>
+          <cell r="E26">
+            <v>5</v>
+          </cell>
+          <cell r="F26">
+            <v>4</v>
+          </cell>
+          <cell r="G26">
+            <v>4</v>
+          </cell>
+          <cell r="H26">
+            <v>3</v>
+          </cell>
+          <cell r="I26">
+            <v>3</v>
+          </cell>
+          <cell r="J26">
+            <v>6</v>
+          </cell>
+          <cell r="K26">
+            <v>4</v>
+          </cell>
+          <cell r="L26">
+            <v>2</v>
+          </cell>
+          <cell r="M26">
+            <v>100</v>
+          </cell>
+          <cell r="N26">
+            <v>0.22</v>
+          </cell>
+          <cell r="O26">
+            <v>10</v>
+          </cell>
+          <cell r="P26">
+            <v>5.3798913649756503</v>
+          </cell>
+          <cell r="Q26">
+            <v>3.8133333333333299</v>
+          </cell>
+          <cell r="R26">
+            <v>3.01323324666114</v>
+          </cell>
+          <cell r="S26">
+            <v>4.0432707168243702</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>BTB-UN.TO</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>BTB REIT</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D27">
+            <v>-4</v>
+          </cell>
+          <cell r="E27">
+            <v>-2</v>
+          </cell>
+          <cell r="F27">
+            <v>-5</v>
+          </cell>
+          <cell r="G27">
+            <v>-3</v>
+          </cell>
+          <cell r="H27">
+            <v>-6</v>
+          </cell>
+          <cell r="I27">
+            <v>-4</v>
+          </cell>
+          <cell r="J27">
+            <v>6</v>
+          </cell>
+          <cell r="K27">
+            <v>4</v>
+          </cell>
+          <cell r="L27">
+            <v>2</v>
+          </cell>
+          <cell r="M27">
+            <v>100</v>
+          </cell>
+          <cell r="N27">
+            <v>0.27</v>
+          </cell>
+          <cell r="O27">
+            <v>10</v>
+          </cell>
+          <cell r="P27">
+            <v>3.4370169928451202</v>
+          </cell>
+          <cell r="Q27">
+            <v>2.5391801215310399</v>
+          </cell>
+          <cell r="R27">
+            <v>2.0741689054229102</v>
+          </cell>
+          <cell r="S27">
+            <v>2.6690278180928302</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>CVX</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Chevron</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D28">
+            <v>9</v>
+          </cell>
+          <cell r="E28">
+            <v>9</v>
+          </cell>
+          <cell r="F28">
+            <v>7</v>
+          </cell>
+          <cell r="G28">
+            <v>7</v>
+          </cell>
+          <cell r="H28">
+            <v>5</v>
+          </cell>
+          <cell r="I28">
+            <v>5</v>
+          </cell>
+          <cell r="J28">
+            <v>6</v>
+          </cell>
+          <cell r="K28">
+            <v>4</v>
+          </cell>
+          <cell r="L28">
+            <v>2</v>
+          </cell>
+          <cell r="M28">
+            <v>100</v>
+          </cell>
+          <cell r="N28">
+            <v>5.31</v>
+          </cell>
+          <cell r="O28">
+            <v>10</v>
+          </cell>
+          <cell r="P28">
+            <v>178.949669781957</v>
+          </cell>
+          <cell r="Q28">
+            <v>115.55761780398301</v>
+          </cell>
+          <cell r="R28">
+            <v>83.998478536222194</v>
+          </cell>
+          <cell r="S28">
+            <v>125.107491617047</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>ENB</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Enbridge</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D29">
+            <v>10</v>
+          </cell>
+          <cell r="E29">
+            <v>8</v>
+          </cell>
+          <cell r="F29">
+            <v>8</v>
+          </cell>
+          <cell r="G29">
+            <v>6</v>
+          </cell>
+          <cell r="H29">
+            <v>6</v>
+          </cell>
+          <cell r="I29">
+            <v>4</v>
+          </cell>
+          <cell r="J29">
+            <v>6</v>
+          </cell>
+          <cell r="K29">
+            <v>4</v>
+          </cell>
+          <cell r="L29">
+            <v>2</v>
+          </cell>
+          <cell r="M29">
+            <v>100</v>
+          </cell>
+          <cell r="N29">
+            <v>2.64</v>
+          </cell>
+          <cell r="O29">
+            <v>10</v>
+          </cell>
+          <cell r="P29">
+            <v>89.524324111194503</v>
+          </cell>
+          <cell r="Q29">
+            <v>57.978525653144402</v>
+          </cell>
+          <cell r="R29">
+            <v>42.255958276558999</v>
+          </cell>
+          <cell r="S29">
+            <v>62.7254949775838</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>FTS</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Fortis</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D30">
+            <v>8</v>
+          </cell>
+          <cell r="E30">
+            <v>8</v>
+          </cell>
+          <cell r="F30">
+            <v>6</v>
+          </cell>
+          <cell r="G30">
+            <v>7</v>
+          </cell>
+          <cell r="H30">
+            <v>4</v>
+          </cell>
+          <cell r="I30">
+            <v>3</v>
+          </cell>
+          <cell r="J30">
+            <v>6</v>
+          </cell>
+          <cell r="K30">
+            <v>4</v>
+          </cell>
+          <cell r="L30">
+            <v>2</v>
+          </cell>
+          <cell r="M30">
+            <v>100</v>
+          </cell>
+          <cell r="N30">
+            <v>1.62</v>
+          </cell>
+          <cell r="O30">
+            <v>10</v>
+          </cell>
+          <cell r="P30">
+            <v>50.398404541677301</v>
+          </cell>
+          <cell r="Q30">
+            <v>33.777303496916602</v>
+          </cell>
+          <cell r="R30">
+            <v>23.144355136701702</v>
+          </cell>
+          <cell r="S30">
+            <v>35.573749302280298</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>GLEN.L</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Glencore</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D31">
+            <v>11</v>
+          </cell>
+          <cell r="E31">
+            <v>9</v>
+          </cell>
+          <cell r="F31">
+            <v>9</v>
+          </cell>
+          <cell r="G31">
+            <v>7</v>
+          </cell>
+          <cell r="H31">
+            <v>7</v>
+          </cell>
+          <cell r="I31">
+            <v>5</v>
+          </cell>
+          <cell r="J31">
+            <v>6</v>
+          </cell>
+          <cell r="K31">
+            <v>4</v>
+          </cell>
+          <cell r="L31">
+            <v>2</v>
+          </cell>
+          <cell r="M31">
+            <v>100</v>
+          </cell>
+          <cell r="N31">
+            <v>0.26</v>
+          </cell>
+          <cell r="O31">
+            <v>10</v>
+          </cell>
+          <cell r="P31">
+            <v>9.5465666077298401</v>
+          </cell>
+          <cell r="Q31">
+            <v>6.1585073978596698</v>
+          </cell>
+          <cell r="R31">
+            <v>4.4720445838312699</v>
+          </cell>
+          <cell r="S31">
+            <v>6.6689863166121999</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>GMRE</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Global Medical REIT</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D32">
+            <v>4</v>
+          </cell>
+          <cell r="E32">
+            <v>3</v>
+          </cell>
+          <cell r="F32">
+            <v>2</v>
+          </cell>
+          <cell r="G32">
+            <v>1</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>-1</v>
+          </cell>
+          <cell r="J32">
+            <v>6</v>
+          </cell>
+          <cell r="K32">
+            <v>4</v>
+          </cell>
+          <cell r="L32">
+            <v>2</v>
+          </cell>
+          <cell r="M32">
+            <v>100</v>
+          </cell>
+          <cell r="N32">
+            <v>0.8</v>
+          </cell>
+          <cell r="O32">
+            <v>10</v>
+          </cell>
+          <cell r="P32">
+            <v>17.4109288903155</v>
+          </cell>
+          <cell r="Q32">
+            <v>11.549321661615799</v>
+          </cell>
+          <cell r="R32">
+            <v>8.6032064377122701</v>
+          </cell>
+          <cell r="S32">
+            <v>12.423969263054699</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>RIO</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Rio Tinto</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D33">
+            <v>10</v>
+          </cell>
+          <cell r="E33">
+            <v>9</v>
+          </cell>
+          <cell r="F33">
+            <v>7</v>
+          </cell>
+          <cell r="G33">
+            <v>6</v>
+          </cell>
+          <cell r="H33">
+            <v>4</v>
+          </cell>
+          <cell r="I33">
+            <v>3</v>
+          </cell>
+          <cell r="J33">
+            <v>6</v>
+          </cell>
+          <cell r="K33">
+            <v>4</v>
+          </cell>
+          <cell r="L33">
+            <v>2</v>
+          </cell>
+          <cell r="M33">
+            <v>100</v>
+          </cell>
+          <cell r="N33">
+            <v>7.82</v>
+          </cell>
+          <cell r="O33">
+            <v>10</v>
+          </cell>
+          <cell r="P33">
+            <v>275.126643297008</v>
+          </cell>
+          <cell r="Q33">
+            <v>164.61337850550001</v>
+          </cell>
+          <cell r="R33">
+            <v>111.721516770992</v>
+          </cell>
+          <cell r="S33">
+            <v>181.89979942260001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>SHEL</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Shell</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D34">
+            <v>6</v>
+          </cell>
+          <cell r="E34">
+            <v>6</v>
+          </cell>
+          <cell r="F34">
+            <v>4</v>
+          </cell>
+          <cell r="G34">
+            <v>4</v>
+          </cell>
+          <cell r="H34">
+            <v>2</v>
+          </cell>
+          <cell r="I34">
+            <v>2</v>
+          </cell>
+          <cell r="J34">
+            <v>6</v>
+          </cell>
+          <cell r="K34">
+            <v>4</v>
+          </cell>
+          <cell r="L34">
+            <v>2</v>
+          </cell>
+          <cell r="M34">
+            <v>100</v>
+          </cell>
+          <cell r="N34">
+            <v>0.89</v>
+          </cell>
+          <cell r="O34">
+            <v>10</v>
+          </cell>
+          <cell r="P34">
+            <v>23.584999999999901</v>
+          </cell>
+          <cell r="Q34">
+            <v>15.4266666666666</v>
+          </cell>
+          <cell r="R34">
+            <v>11.347499999999901</v>
+          </cell>
+          <cell r="S34">
+            <v>16.650416666666601</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>T</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>AT&amp;T</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D35">
+            <v>2</v>
+          </cell>
+          <cell r="E35">
+            <v>2</v>
+          </cell>
+          <cell r="F35">
+            <v>1</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>-1</v>
+          </cell>
+          <cell r="J35">
+            <v>6</v>
+          </cell>
+          <cell r="K35">
+            <v>4</v>
+          </cell>
+          <cell r="L35">
+            <v>2</v>
+          </cell>
+          <cell r="M35">
+            <v>100</v>
+          </cell>
+          <cell r="N35">
+            <v>2.08</v>
+          </cell>
+          <cell r="O35">
+            <v>10</v>
+          </cell>
+          <cell r="P35">
+            <v>39.9612883885572</v>
+          </cell>
+          <cell r="Q35">
+            <v>27.863983099577101</v>
+          </cell>
+          <cell r="R35">
+            <v>22.368336738051902</v>
+          </cell>
+          <cell r="S35">
+            <v>29.844480777813601</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>TRP</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>TC Energy</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D36">
+            <v>6</v>
+          </cell>
+          <cell r="E36">
+            <v>6</v>
+          </cell>
+          <cell r="F36">
+            <v>4</v>
+          </cell>
+          <cell r="G36">
+            <v>5</v>
+          </cell>
+          <cell r="H36">
+            <v>2</v>
+          </cell>
+          <cell r="I36">
+            <v>1</v>
+          </cell>
+          <cell r="J36">
+            <v>6</v>
+          </cell>
+          <cell r="K36">
+            <v>4</v>
+          </cell>
+          <cell r="L36">
+            <v>2</v>
+          </cell>
+          <cell r="M36">
+            <v>100</v>
+          </cell>
+          <cell r="N36">
+            <v>2.75</v>
+          </cell>
+          <cell r="O36">
+            <v>10</v>
+          </cell>
+          <cell r="P36">
+            <v>72.874999999999901</v>
+          </cell>
+          <cell r="Q36">
+            <v>49.247504670096397</v>
+          </cell>
+          <cell r="R36">
+            <v>34.061885154942097</v>
+          </cell>
+          <cell r="S36">
+            <v>51.780067414521199</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>TU</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>TELUS</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D37">
+            <v>7</v>
+          </cell>
+          <cell r="E37">
+            <v>7</v>
+          </cell>
+          <cell r="F37">
+            <v>5</v>
+          </cell>
+          <cell r="G37">
+            <v>6</v>
+          </cell>
+          <cell r="H37">
+            <v>3</v>
+          </cell>
+          <cell r="I37">
+            <v>2</v>
+          </cell>
+          <cell r="J37">
+            <v>6</v>
+          </cell>
+          <cell r="K37">
+            <v>4</v>
+          </cell>
+          <cell r="L37">
+            <v>2</v>
+          </cell>
+          <cell r="M37">
+            <v>100</v>
+          </cell>
+          <cell r="N37">
+            <v>1.01</v>
+          </cell>
+          <cell r="O37">
+            <v>10</v>
+          </cell>
+          <cell r="P37">
+            <v>29.001609602826999</v>
+          </cell>
+          <cell r="Q37">
+            <v>19.515656360791301</v>
+          </cell>
+          <cell r="R37">
+            <v>13.433361090866301</v>
+          </cell>
+          <cell r="S37">
+            <v>20.536753752424499</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>XOM</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Exxon Mobil</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D38">
+            <v>9</v>
+          </cell>
+          <cell r="E38">
+            <v>9</v>
+          </cell>
+          <cell r="F38">
+            <v>7</v>
+          </cell>
+          <cell r="G38">
+            <v>7</v>
+          </cell>
+          <cell r="H38">
+            <v>5</v>
+          </cell>
+          <cell r="I38">
+            <v>5</v>
+          </cell>
+          <cell r="J38">
+            <v>6</v>
+          </cell>
+          <cell r="K38">
+            <v>4</v>
+          </cell>
+          <cell r="L38">
+            <v>2</v>
+          </cell>
+          <cell r="M38">
+            <v>100</v>
+          </cell>
+          <cell r="N38">
+            <v>3.49</v>
+          </cell>
+          <cell r="O38">
+            <v>10</v>
+          </cell>
+          <cell r="P38">
+            <v>117.614754715448</v>
+          </cell>
+          <cell r="Q38">
+            <v>75.950298707326198</v>
+          </cell>
+          <cell r="R38">
+            <v>55.208039565238302</v>
+          </cell>
+          <cell r="S38">
+            <v>82.226957767136497</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>BK</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Bank of New York Mellon Corporation</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D39">
+            <v>12</v>
+          </cell>
+          <cell r="E39">
+            <v>10</v>
+          </cell>
+          <cell r="F39">
+            <v>10</v>
+          </cell>
+          <cell r="G39">
+            <v>8</v>
+          </cell>
+          <cell r="H39">
+            <v>8</v>
+          </cell>
+          <cell r="I39">
+            <v>6</v>
+          </cell>
+          <cell r="J39">
+            <v>6</v>
+          </cell>
+          <cell r="K39">
+            <v>4</v>
+          </cell>
+          <cell r="L39">
+            <v>2</v>
+          </cell>
+          <cell r="M39">
+            <v>100</v>
+          </cell>
+          <cell r="N39">
+            <v>1.3</v>
+          </cell>
+          <cell r="O39">
+            <v>10</v>
+          </cell>
+          <cell r="P39">
+            <v>51.6738414936883</v>
+          </cell>
+          <cell r="Q39">
+            <v>33.211929971996398</v>
+          </cell>
+          <cell r="R39">
+            <v>24.0330736179375</v>
+          </cell>
+          <cell r="S39">
+            <v>35.996846522286297</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>BLK</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>BlackRock</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D40">
+            <v>10</v>
+          </cell>
+          <cell r="E40">
+            <v>8</v>
+          </cell>
+          <cell r="F40">
+            <v>8</v>
+          </cell>
+          <cell r="G40">
+            <v>6</v>
+          </cell>
+          <cell r="H40">
+            <v>6</v>
+          </cell>
+          <cell r="I40">
+            <v>4</v>
+          </cell>
+          <cell r="J40">
+            <v>6</v>
+          </cell>
+          <cell r="K40">
+            <v>4</v>
+          </cell>
+          <cell r="L40">
+            <v>2</v>
+          </cell>
+          <cell r="M40">
+            <v>100</v>
+          </cell>
+          <cell r="N40">
+            <v>16.52</v>
+          </cell>
+          <cell r="O40">
+            <v>10</v>
+          </cell>
+          <cell r="P40">
+            <v>560.20524027156603</v>
+          </cell>
+          <cell r="Q40">
+            <v>362.8050165871</v>
+          </cell>
+          <cell r="R40">
+            <v>264.41986012452799</v>
+          </cell>
+          <cell r="S40">
+            <v>392.50953675366799</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>BMO</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Bank of Montreal</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D41">
+            <v>5</v>
+          </cell>
+          <cell r="E41">
+            <v>4</v>
+          </cell>
+          <cell r="F41">
+            <v>4</v>
+          </cell>
+          <cell r="G41">
+            <v>3</v>
+          </cell>
+          <cell r="H41">
+            <v>3</v>
+          </cell>
+          <cell r="I41">
+            <v>2</v>
+          </cell>
+          <cell r="J41">
+            <v>6</v>
+          </cell>
+          <cell r="K41">
+            <v>4</v>
+          </cell>
+          <cell r="L41">
+            <v>2</v>
+          </cell>
+          <cell r="M41">
+            <v>100</v>
+          </cell>
+          <cell r="N41">
+            <v>3.43</v>
+          </cell>
+          <cell r="O41">
+            <v>10</v>
+          </cell>
+          <cell r="P41">
+            <v>80.886495981707697</v>
+          </cell>
+          <cell r="Q41">
+            <v>57.551900324626097</v>
+          </cell>
+          <cell r="R41">
+            <v>45.620226278882903</v>
+          </cell>
+          <cell r="S41">
+            <v>60.972776808027596</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>BNS</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Bank of Nova Scotia</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D42">
+            <v>5</v>
+          </cell>
+          <cell r="E42">
+            <v>4</v>
+          </cell>
+          <cell r="F42">
+            <v>4</v>
+          </cell>
+          <cell r="G42">
+            <v>3</v>
+          </cell>
+          <cell r="H42">
+            <v>3</v>
+          </cell>
+          <cell r="I42">
+            <v>2</v>
+          </cell>
+          <cell r="J42">
+            <v>6</v>
+          </cell>
+          <cell r="K42">
+            <v>4</v>
+          </cell>
+          <cell r="L42">
+            <v>2</v>
+          </cell>
+          <cell r="M42">
+            <v>100</v>
+          </cell>
+          <cell r="N42">
+            <v>2.91</v>
+          </cell>
+          <cell r="O42">
+            <v>10</v>
+          </cell>
+          <cell r="P42">
+            <v>68.6238202060552</v>
+          </cell>
+          <cell r="Q42">
+            <v>48.826830887656598</v>
+          </cell>
+          <cell r="R42">
+            <v>38.704040370713997</v>
+          </cell>
+          <cell r="S42">
+            <v>51.729090528093401</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>JPM</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>JPMorgan</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Dividend</v>
+          </cell>
+          <cell r="D43">
+            <v>15</v>
+          </cell>
+          <cell r="E43">
+            <v>13</v>
+          </cell>
+          <cell r="F43">
+            <v>12</v>
+          </cell>
+          <cell r="G43">
+            <v>10</v>
+          </cell>
+          <cell r="H43">
+            <v>9</v>
+          </cell>
+          <cell r="I43">
+            <v>7</v>
+          </cell>
+          <cell r="J43">
+            <v>6</v>
+          </cell>
+          <cell r="K43">
+            <v>4</v>
+          </cell>
+          <cell r="L43">
+            <v>2</v>
+          </cell>
+          <cell r="M43">
+            <v>100</v>
+          </cell>
+          <cell r="N43">
+            <v>3.8</v>
+          </cell>
+          <cell r="O43">
+            <v>10</v>
+          </cell>
+          <cell r="P43">
+            <v>191.37047358466</v>
+          </cell>
+          <cell r="Q43">
+            <v>112.929349315351</v>
+          </cell>
+          <cell r="R43">
+            <v>75.518247561948698</v>
+          </cell>
+          <cell r="S43">
+            <v>125.238356070123</v>
           </cell>
         </row>
       </sheetData>
@@ -2740,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2789,16 +4315,16 @@
         <v>Dividend</v>
       </c>
       <c r="D2">
-        <f>Price!D2</f>
-        <v>3823</v>
-      </c>
-      <c r="E2" t="e">
-        <f>VLOOKUP(A2,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="2" t="e">
+        <f>Price!E2</f>
+        <v>54.053039032118598</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>49.3693329631867</v>
+      </c>
+      <c r="F2" s="2">
         <f>D2/E2</f>
-        <v>#N/A</v>
+        <v>1.0948707585825477</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2815,16 +4341,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D3">
-        <f>Price!D3</f>
-        <v>164.21000671386699</v>
+        <f>Price!E3</f>
+        <v>166.55999755859301</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>107.267688085987</v>
+        <f>VLOOKUP(A3,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>119.24588078922901</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F38" si="0">D3/E3</f>
-        <v>1.5308431611039699</v>
+        <f t="shared" ref="F3:F47" si="0">D3/E3</f>
+        <v>1.3967777876788319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2841,16 +4367,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D4">
-        <f>Price!D4</f>
-        <v>315.73001098632801</v>
+        <f>Price!E4</f>
+        <v>318.329986572265</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A4,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>188.06746224934301</v>
+        <f>VLOOKUP(A4,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>221.48321834157801</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1.6788125240278291</v>
+        <v>1.4372645880615975</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2867,16 +4393,16 @@
         <v>Dividend</v>
       </c>
       <c r="D5">
-        <f>Price!D5</f>
-        <v>27.889999389648398</v>
-      </c>
-      <c r="E5" t="e">
-        <f>VLOOKUP(A5,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="2" t="e">
+        <f>Price!E5</f>
+        <v>22.3176358651871</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>12.284905262084701</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.8166713856611283</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2893,16 +4419,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D6">
-        <f>Price!D6</f>
-        <v>3056.15991210937</v>
+        <f>Price!E6</f>
+        <v>3041.05004882812</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A6,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A6,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>947.05522201413703</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>3.2270134212551227</v>
+        <v>3.2110588465587124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2919,16 +4445,16 @@
         <v>Dividend</v>
       </c>
       <c r="D7">
-        <f>Price!D7</f>
-        <v>14.5100002288818</v>
-      </c>
-      <c r="E7" t="e">
-        <f>VLOOKUP(A7,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="2" t="e">
+        <f>Price!E7</f>
+        <v>14.5900001525878</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>13.890250860763199</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.0503770089423823</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2945,16 +4471,16 @@
         <v>Dividend</v>
       </c>
       <c r="D8">
-        <f>Price!D8</f>
-        <v>33.759998321533203</v>
-      </c>
-      <c r="E8" t="e">
-        <f>VLOOKUP(A8,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="2" t="e">
+        <f>Price!E8</f>
+        <v>35.080001831054602</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(A8,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>25.9350358366266</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.3526105015637988</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2971,16 +4497,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D9">
-        <f>Price!D9</f>
-        <v>106.27960205078099</v>
+        <f>Price!E9</f>
+        <v>105.419998168945</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A9,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>336.83597396302798</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.31552331183737081</v>
+        <v>0.31297131636098996</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2997,16 +4523,16 @@
         <v>Dividend</v>
       </c>
       <c r="D10">
-        <f>Price!D10</f>
-        <v>36.784999847412102</v>
-      </c>
-      <c r="E10" t="e">
-        <f>VLOOKUP(A10,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="2" t="e">
+        <f>Price!E10</f>
+        <v>37.549999237060497</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(A10,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>22.2542703733032</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.6873165737262925</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3023,16 +4549,16 @@
         <v>Dividend</v>
       </c>
       <c r="D11">
-        <f>Price!D11</f>
-        <v>70.135002136230398</v>
-      </c>
-      <c r="E11" t="e">
-        <f>VLOOKUP(A11,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="2" t="e">
+        <f>Price!E11</f>
+        <v>71.269996643066406</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(A11,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>47.1357693143934</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.5120151358451122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3046,19 +4572,19 @@
       </c>
       <c r="C12" t="str">
         <f>Price!C12</f>
-        <v>Financial</v>
+        <v>Dividend</v>
       </c>
       <c r="D12">
-        <f>Price!D12</f>
-        <v>52.939998626708899</v>
-      </c>
-      <c r="E12" t="e">
-        <f>VLOOKUP(A12,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="2" t="e">
+        <f>Price!E12</f>
+        <v>52.139999389648402</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>35.996846522286297</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.4484601965721522</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3072,19 +4598,19 @@
       </c>
       <c r="C13" t="str">
         <f>Price!C13</f>
-        <v>Financial</v>
+        <v>Dividend</v>
       </c>
       <c r="D13">
-        <f>Price!D13</f>
-        <v>742.39001464843705</v>
-      </c>
-      <c r="E13" t="e">
-        <f>VLOOKUP(A13,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="2" t="e">
+        <f>Price!E13</f>
+        <v>738.03997802734295</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(A13,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>392.50953675366799</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.8803109451338598</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3098,19 +4624,19 @@
       </c>
       <c r="C14" t="str">
         <f>Price!C14</f>
-        <v>Financial</v>
+        <v>Dividend</v>
       </c>
       <c r="D14">
-        <f>Price!D14</f>
-        <v>113.550003051757</v>
-      </c>
-      <c r="E14" t="e">
-        <f>VLOOKUP(A14,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="2" t="e">
+        <f>Price!E14</f>
+        <v>116.889999389648</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(A14,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>60.972776808027596</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.9170850584298533</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3124,19 +4650,19 @@
       </c>
       <c r="C15" t="str">
         <f>Price!C15</f>
-        <v>Financial</v>
+        <v>Dividend</v>
       </c>
       <c r="D15">
-        <f>Price!D15</f>
-        <v>71.959999084472599</v>
-      </c>
-      <c r="E15" t="e">
-        <f>VLOOKUP(A15,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="2" t="e">
+        <f>Price!E15</f>
+        <v>73.800003051757798</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>51.729090528093401</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.4266634556754476</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3153,16 +4679,16 @@
         <v>Dividend</v>
       </c>
       <c r="D16">
-        <f>Price!D16</f>
-        <v>363.54998779296801</v>
-      </c>
-      <c r="E16" t="e">
-        <f>VLOOKUP(A16,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F16" s="2" t="e">
+        <f>Price!E16</f>
+        <v>5.1033801044044802</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(A16,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>4.0432707168243702</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.2621910482444103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3176,14 +4702,14 @@
       </c>
       <c r="C17" t="str">
         <f>Price!C17</f>
-        <v>Financial</v>
+        <v>Insurance</v>
       </c>
       <c r="D17">
-        <f>Price!D17</f>
-        <v>319.55999755859301</v>
+        <f>Price!E17</f>
+        <v>323.64001464843699</v>
       </c>
       <c r="E17" t="e">
-        <f>VLOOKUP(A17,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A17,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F17" s="2" t="e">
@@ -3205,16 +4731,16 @@
         <v>Dividend</v>
       </c>
       <c r="D18">
-        <f>Price!D18</f>
-        <v>4.0700001716613698</v>
-      </c>
-      <c r="E18" t="e">
-        <f>VLOOKUP(A18,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="2" t="e">
+        <f>Price!E18</f>
+        <v>3.2163883555280601</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(A18,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>2.6690278180928302</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.2050786184110849</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3231,16 +4757,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D19">
-        <f>Price!D19</f>
-        <v>515.82000732421795</v>
+        <f>Price!E19</f>
+        <v>528</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>172.28855952094</v>
+        <f>VLOOKUP(A19,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>202.90072609976801</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>2.9939306983498519</v>
+        <v>2.6022578142001223</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3257,16 +4783,16 @@
         <v>Dividend</v>
       </c>
       <c r="D20">
-        <f>Price!D20</f>
-        <v>143.00500488281199</v>
-      </c>
-      <c r="E20" t="e">
-        <f>VLOOKUP(A20,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="2" t="e">
+        <f>Price!E20</f>
+        <v>154.13999938964801</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(A20,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>125.107491617047</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.2320605057087171</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3283,16 +4809,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D21">
-        <f>Price!D21</f>
-        <v>123.01999664306599</v>
+        <f>Price!E21</f>
+        <v>116.120002746582</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(A21,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>361.98048738142001</v>
+        <f>VLOOKUP(A21,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>380.54098659923</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.33985256369202971</v>
+        <v>0.30514453589955814</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3309,16 +4835,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D22">
-        <f>Price!D22</f>
-        <v>54.430000305175703</v>
+        <f>Price!E22</f>
+        <v>55.090000152587798</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(A22,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>39.373295787402803</v>
+        <f>VLOOKUP(A22,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>44.5529731879842</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>1.3824090469609653</v>
+        <v>1.2365055844902715</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3335,16 +4861,16 @@
         <v>Dividend</v>
       </c>
       <c r="D23">
-        <f>Price!D23</f>
-        <v>42.939998626708899</v>
-      </c>
-      <c r="E23" t="e">
-        <f>VLOOKUP(A23,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="2" t="e">
+        <f>Price!E23</f>
+        <v>44.400001525878899</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(A23,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>62.7254949775838</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0.70784617230595182</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3361,16 +4887,16 @@
         <v>Dividend</v>
       </c>
       <c r="D24">
-        <f>Price!D24</f>
-        <v>45.9799995422363</v>
-      </c>
-      <c r="E24" t="e">
-        <f>VLOOKUP(A24,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="2" t="e">
+        <f>Price!E24</f>
+        <v>46.349998474121001</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(A24,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>35.573749302280298</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.3029270004764424</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3387,16 +4913,16 @@
         <v>Dividend</v>
       </c>
       <c r="D25">
-        <f>Price!D25</f>
-        <v>442.14999389648398</v>
-      </c>
-      <c r="E25" t="e">
-        <f>VLOOKUP(A25,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="2" t="e">
+        <f>Price!E25</f>
+        <v>6.35546433631339</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(A25,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>6.6689863166121999</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0.95298806064156438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3413,16 +4939,16 @@
         <v>Dividend</v>
       </c>
       <c r="D26">
-        <f>Price!D26</f>
-        <v>15.569999694824199</v>
-      </c>
-      <c r="E26" t="e">
-        <f>VLOOKUP(A26,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="2" t="e">
+        <f>Price!E26</f>
+        <v>15.649999618530201</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(A26,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>12.423969263054699</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.259661810744235</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3439,16 +4965,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D27">
-        <f>Price!D27</f>
-        <v>2690.26000976562</v>
+        <f>Price!E27</f>
+        <v>2695.03002929687</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(A27,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A27,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>2928.94892864036</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0.9185069713777696</v>
+        <v>0.9201355486071664</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3465,16 +4991,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D28">
-        <f>Price!D28</f>
-        <v>148.55999755859301</v>
+        <f>Price!E28</f>
+        <v>1.8456866097728399</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(A28,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A28,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>-1.44257447461549</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>-102.98254972117874</v>
+        <v>-1.2794393927320786</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3488,19 +5014,19 @@
       </c>
       <c r="C29" t="str">
         <f>Price!C29</f>
-        <v>Financial</v>
+        <v>Dividend</v>
       </c>
       <c r="D29">
-        <f>Price!D29</f>
-        <v>144.22999572753901</v>
-      </c>
-      <c r="E29" t="e">
-        <f>VLOOKUP(A29,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="2" t="e">
+        <f>Price!E29</f>
+        <v>139.27999877929599</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(A29,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>125.238356070123</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>1.1121193470577884</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3517,16 +5043,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D30">
-        <f>Price!D30</f>
-        <v>362.98001098632801</v>
+        <f>Price!E30</f>
+        <v>344.08999633789</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(A30,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>248.71095050406001</v>
+        <f>VLOOKUP(A30,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>269.93344858161902</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>1.4594452325105913</v>
+        <v>1.2747215958078959</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3543,16 +5069,16 @@
         <v>CashFlow</v>
       </c>
       <c r="D31">
-        <f>Price!D31</f>
-        <v>1133.0400390625</v>
+        <f>Price!E31</f>
+        <v>1140.90002441406</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(A31,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>175.27769645976301</v>
+        <f>VLOOKUP(A31,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>159.90073854187199</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>6.4642567876432713</v>
+        <v>7.1350516252637641</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3566,14 +5092,14 @@
       </c>
       <c r="C32" t="str">
         <f>Price!C32</f>
-        <v>Financial</v>
+        <v>Insurance</v>
       </c>
       <c r="D32">
-        <f>Price!D32</f>
-        <v>20.215000152587798</v>
+        <f>Price!E32</f>
+        <v>20.0100002288818</v>
       </c>
       <c r="E32" t="e">
-        <f>VLOOKUP(A32,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A32,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F32" s="2" t="e">
@@ -3581,7 +5107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="str">
         <f>Price!A33</f>
         <v>MKL</v>
@@ -3592,14 +5118,14 @@
       </c>
       <c r="C33" t="str">
         <f>Price!C33</f>
-        <v>Financial</v>
+        <v>Insurance</v>
       </c>
       <c r="D33">
-        <f>Price!D33</f>
-        <v>1232.30004882812</v>
+        <f>Price!E33</f>
+        <v>1258.2099609375</v>
       </c>
       <c r="E33" t="e">
-        <f>VLOOKUP(A33,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A33,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F33" s="2" t="e">
@@ -3607,7 +5133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="str">
         <f>Price!A34</f>
         <v>MSFT</v>
@@ -3621,19 +5147,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D34">
-        <f>Price!D34</f>
-        <v>295.97000122070301</v>
+        <f>Price!E34</f>
+        <v>300.19000244140602</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(A34,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>102.523805436722</v>
+        <f>VLOOKUP(A34,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>120.978598795685</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>2.8868417433390783</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2.481347985757238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="str">
         <f>Price!A35</f>
         <v>NFI.TO</v>
@@ -3647,19 +5173,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D35">
-        <f>Price!D35</f>
-        <v>18.9799995422363</v>
+        <f>Price!E35</f>
+        <v>14.576230654318399</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(A35,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>8.9570528943373393</v>
+        <f>VLOOKUP(A35,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>11.6442427875555</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>2.1190004978351173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1.2517972117428184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="str">
         <f>Price!A36</f>
         <v>NXPI</v>
@@ -3673,19 +5199,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D36">
-        <f>Price!D36</f>
-        <v>189.69999694824199</v>
+        <f>Price!E36</f>
+        <v>188.350006103515</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(A36,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A36,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>109.13824449715599</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>1.7381624362959707</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.7257928874641479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="str">
         <f>Price!A37</f>
         <v>PYPL</v>
@@ -3699,19 +5225,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D37">
-        <f>Price!D37</f>
-        <v>111.58999633789</v>
+        <f>Price!E37</f>
+        <v>106.61000061035099</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(A37,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A37,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>89.165062089429696</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>1.2514991154940127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>1.1956476910589102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="str">
         <f>Price!A38</f>
         <v>RIO</v>
@@ -3725,19 +5251,19 @@
         <v>Dividend</v>
       </c>
       <c r="D38">
-        <f>Price!D38</f>
-        <v>78.459999084472599</v>
-      </c>
-      <c r="E38" t="e">
-        <f>VLOOKUP(A38,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="2" t="e">
+        <f>Price!E38</f>
+        <v>83.540000915527301</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(A38,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>181.89979942260001</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.4592638429547819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="str">
         <f>Price!A39</f>
         <v>SAP</v>
@@ -3751,19 +5277,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D39">
-        <f>Price!D39</f>
-        <v>113.11000061035099</v>
+        <f>Price!E39</f>
+        <v>113.19000244140599</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(A39,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>13.0898601075149</v>
+        <f>VLOOKUP(A39,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>15.817962909840301</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" ref="F39:F47" si="1">D39/E39</f>
-        <v>8.64103968119678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>7.155788838712656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="str">
         <f>Price!A40</f>
         <v>SHEL</v>
@@ -3777,19 +5303,19 @@
         <v>Dividend</v>
       </c>
       <c r="D40">
-        <f>Price!D40</f>
-        <v>52.865001678466797</v>
-      </c>
-      <c r="E40" t="e">
-        <f>VLOOKUP(A40,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <f>Price!E40</f>
+        <v>54.619998931884702</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(A40,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>16.650416666666601</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2803983242792674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="str">
         <f>Price!A41</f>
         <v>SLF</v>
@@ -3800,22 +5326,22 @@
       </c>
       <c r="C41" t="str">
         <f>Price!C41</f>
-        <v>Financial</v>
+        <v>Insurance</v>
       </c>
       <c r="D41">
-        <f>Price!D41</f>
-        <v>52.340000152587798</v>
+        <f>Price!E41</f>
+        <v>52.150001525878899</v>
       </c>
       <c r="E41" t="e">
-        <f>VLOOKUP(A41,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A41,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F41" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" t="str">
         <f>Price!A42</f>
         <v>T</v>
@@ -3829,19 +5355,19 @@
         <v>Dividend</v>
       </c>
       <c r="D42">
-        <f>Price!D42</f>
-        <v>23.610000610351499</v>
-      </c>
-      <c r="E42" t="e">
-        <f>VLOOKUP(A42,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <f>Price!E42</f>
+        <v>23.819999694824201</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(A42,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>29.844480777813601</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79813751400667687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="str">
         <f>Price!A43</f>
         <v>TDG</v>
@@ -3855,19 +5381,19 @@
         <v>CashFlow</v>
       </c>
       <c r="D43">
-        <f>Price!D43</f>
-        <v>668.20001220703102</v>
+        <f>Price!E43</f>
+        <v>675.510009765625</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(A43,NPV!$A$2:$S$20,19,FALSE)</f>
+        <f>VLOOKUP(A43,NPV!$A$2:$S$50,19,FALSE)</f>
         <v>305.85929266663499</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1846647403821788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>2.2085646111196731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="str">
         <f>Price!A44</f>
         <v>TRP</v>
@@ -3881,19 +5407,19 @@
         <v>Dividend</v>
       </c>
       <c r="D44">
-        <f>Price!D44</f>
-        <v>53.270000457763601</v>
-      </c>
-      <c r="E44" t="e">
-        <f>VLOOKUP(A44,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <f>Price!E44</f>
+        <v>55.029998779296797</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(A44,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>51.780067414521199</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0627641393117264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="str">
         <f>Price!A45</f>
         <v>TU</v>
@@ -3907,19 +5433,19 @@
         <v>Dividend</v>
       </c>
       <c r="D45">
-        <f>Price!D45</f>
-        <v>25.270000457763601</v>
-      </c>
-      <c r="E45" t="e">
-        <f>VLOOKUP(A45,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <f>Price!E45</f>
+        <v>25.670000076293899</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(A45,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>20.536753752424499</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2499541254548756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="str">
         <f>Price!A46</f>
         <v>V</v>
@@ -3933,19 +5459,20 @@
         <v>CashFlow</v>
       </c>
       <c r="D46">
-        <f>Price!D46</f>
-        <v>217.05000305175699</v>
+        <f>Price!E46</f>
+        <v>208.47999572753901</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(A46,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>296.70177972618598</v>
+        <f>VLOOKUP(A46,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>318.05863126984798</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.73154263938714359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>0.65547661729909157</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="str">
         <f>Price!A47</f>
         <v>XOM</v>
@@ -3959,16 +5486,16 @@
         <v>Dividend</v>
       </c>
       <c r="D47">
-        <f>Price!D47</f>
-        <v>78.639999389648395</v>
-      </c>
-      <c r="E47" t="e">
-        <f>VLOOKUP(A47,NPV!$A$2:$S$20,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F47" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <f>Price!E47</f>
+        <v>80.529998779296804</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(A47,NPV!$A$2:$S$50,19,FALSE)</f>
+        <v>82.226957767136497</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97936249821323296</v>
       </c>
     </row>
   </sheetData>
@@ -3988,72 +5515,1047 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32FF6B-95FA-834C-9E15-4B0CB838C76E}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F6B45-0C58-8944-98B3-2DECD955E5A1}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+    <row r="1" spans="1:5">
+      <c r="A1" t="str">
+        <f>[1]prices!A1</f>
+        <v>ticker</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[1]prices!B1</f>
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[1]prices!C1</f>
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[1]prices!D1</f>
+        <v>currency</v>
+      </c>
+      <c r="E1" t="str">
+        <f>[1]prices!E1</f>
+        <v>price</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="str">
+        <f>[1]prices!A2</f>
+        <v>AAL.L</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]prices!B2</f>
+        <v>AngloAmerican</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]prices!C2</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D2" t="str">
+        <f>[1]prices!D2</f>
+        <v>GBP</v>
+      </c>
+      <c r="E2">
+        <f>[1]prices!E2</f>
+        <v>54.053039032118598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="str">
+        <f>[1]prices!A3</f>
+        <v>AAPL</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]prices!B3</f>
+        <v>Apple</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]prices!C3</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D3" t="str">
+        <f>[1]prices!D3</f>
+        <v>USD</v>
+      </c>
+      <c r="E3">
+        <f>[1]prices!E3</f>
+        <v>166.55999755859301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="str">
+        <f>[1]prices!A4</f>
+        <v>ACN</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[1]prices!B4</f>
+        <v>Accenture</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]prices!C4</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D4" t="str">
+        <f>[1]prices!D4</f>
+        <v>USD</v>
+      </c>
+      <c r="E4">
+        <f>[1]prices!E4</f>
+        <v>318.329986572265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="str">
+        <f>[1]prices!A5</f>
+        <v>ALA.TO</v>
+      </c>
+      <c r="B5" t="str">
+        <f>[1]prices!B5</f>
+        <v>AltaGas</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]prices!C5</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D5" t="str">
+        <f>[1]prices!D5</f>
+        <v>CAD</v>
+      </c>
+      <c r="E5">
+        <f>[1]prices!E5</f>
+        <v>22.3176358651871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="str">
+        <f>[1]prices!A6</f>
+        <v>AMZN</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[1]prices!B6</f>
+        <v>Amazon.com</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]prices!C6</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D6" t="str">
+        <f>[1]prices!D6</f>
+        <v>USD</v>
+      </c>
+      <c r="E6">
+        <f>[1]prices!E6</f>
+        <v>3041.05004882812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="str">
+        <f>[1]prices!A7</f>
+        <v>AQN</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]prices!B7</f>
+        <v>Algonquin</v>
+      </c>
+      <c r="C7" t="str">
+        <f>[1]prices!C7</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D7" t="str">
+        <f>[1]prices!D7</f>
+        <v>USD</v>
+      </c>
+      <c r="E7">
+        <f>[1]prices!E7</f>
+        <v>14.5900001525878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="str">
+        <f>[1]prices!A8</f>
+        <v>AY</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]prices!B8</f>
+        <v>Atlantica</v>
+      </c>
+      <c r="C8" t="str">
+        <f>[1]prices!C8</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D8" t="str">
+        <f>[1]prices!D8</f>
+        <v>USD</v>
+      </c>
+      <c r="E8">
+        <f>[1]prices!E8</f>
+        <v>35.080001831054602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="str">
+        <f>[1]prices!A9</f>
+        <v>BABA</v>
+      </c>
+      <c r="B9" t="str">
+        <f>[1]prices!B9</f>
+        <v>Alibaba</v>
+      </c>
+      <c r="C9" t="str">
+        <f>[1]prices!C9</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D9" t="str">
+        <f>[1]prices!D9</f>
+        <v>USD</v>
+      </c>
+      <c r="E9">
+        <f>[1]prices!E9</f>
+        <v>105.419998168945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="str">
+        <f>[1]prices!A10</f>
+        <v>BEPC</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[1]prices!B10</f>
+        <v>Brookfield Renewable</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[1]prices!C10</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D10" t="str">
+        <f>[1]prices!D10</f>
+        <v>USD</v>
+      </c>
+      <c r="E10">
+        <f>[1]prices!E10</f>
+        <v>37.549999237060497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="str">
+        <f>[1]prices!A11</f>
+        <v>BIPC</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[1]prices!B11</f>
+        <v>Brookfield Infrastructure</v>
+      </c>
+      <c r="C11" t="str">
+        <f>[1]prices!C11</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D11" t="str">
+        <f>[1]prices!D11</f>
+        <v>USD</v>
+      </c>
+      <c r="E11">
+        <f>[1]prices!E11</f>
+        <v>71.269996643066406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="str">
+        <f>[1]prices!A12</f>
+        <v>BK</v>
+      </c>
+      <c r="B12" t="str">
+        <f>[1]prices!B12</f>
+        <v>Bank of New York Mellon Corporation</v>
+      </c>
+      <c r="C12" t="str">
+        <f>[1]prices!C12</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D12" t="str">
+        <f>[1]prices!D12</f>
+        <v>USD</v>
+      </c>
+      <c r="E12">
+        <f>[1]prices!E12</f>
+        <v>52.139999389648402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="str">
+        <f>[1]prices!A13</f>
+        <v>BLK</v>
+      </c>
+      <c r="B13" t="str">
+        <f>[1]prices!B13</f>
+        <v>BlackRock</v>
+      </c>
+      <c r="C13" t="str">
+        <f>[1]prices!C13</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D13" t="str">
+        <f>[1]prices!D13</f>
+        <v>USD</v>
+      </c>
+      <c r="E13">
+        <f>[1]prices!E13</f>
+        <v>738.03997802734295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="str">
+        <f>[1]prices!A14</f>
+        <v>BMO</v>
+      </c>
+      <c r="B14" t="str">
+        <f>[1]prices!B14</f>
+        <v>Bank of Montreal</v>
+      </c>
+      <c r="C14" t="str">
+        <f>[1]prices!C14</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D14" t="str">
+        <f>[1]prices!D14</f>
+        <v>USD</v>
+      </c>
+      <c r="E14">
+        <f>[1]prices!E14</f>
+        <v>116.889999389648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="str">
+        <f>[1]prices!A15</f>
+        <v>BNS</v>
+      </c>
+      <c r="B15" t="str">
+        <f>[1]prices!B15</f>
+        <v>Bank of Nova Scotia</v>
+      </c>
+      <c r="C15" t="str">
+        <f>[1]prices!C15</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D15" t="str">
+        <f>[1]prices!D15</f>
+        <v>USD</v>
+      </c>
+      <c r="E15">
+        <f>[1]prices!E15</f>
+        <v>73.800003051757798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="str">
+        <f>[1]prices!A16</f>
+        <v>BP.L</v>
+      </c>
+      <c r="B16" t="str">
+        <f>[1]prices!B16</f>
+        <v>BP</v>
+      </c>
+      <c r="C16" t="str">
+        <f>[1]prices!C16</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D16" t="str">
+        <f>[1]prices!D16</f>
+        <v>GBP</v>
+      </c>
+      <c r="E16">
+        <f>[1]prices!E16</f>
+        <v>5.1033801044044802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="str">
+        <f>[1]prices!A17</f>
+        <v>BRK-B</v>
+      </c>
+      <c r="B17" t="str">
+        <f>[1]prices!B17</f>
+        <v>Berkshire Hathaway</v>
+      </c>
+      <c r="C17" t="str">
+        <f>[1]prices!C17</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D17" t="str">
+        <f>[1]prices!D17</f>
+        <v>USD</v>
+      </c>
+      <c r="E17">
+        <f>[1]prices!E17</f>
+        <v>323.64001464843699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="str">
+        <f>[1]prices!A18</f>
+        <v>BTB-UN.TO</v>
+      </c>
+      <c r="B18" t="str">
+        <f>[1]prices!B18</f>
+        <v>BTB REIT</v>
+      </c>
+      <c r="C18" t="str">
+        <f>[1]prices!C18</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D18" t="str">
+        <f>[1]prices!D18</f>
+        <v>CAD</v>
+      </c>
+      <c r="E18">
+        <f>[1]prices!E18</f>
+        <v>3.2163883555280601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="str">
+        <f>[1]prices!A19</f>
+        <v>COST</v>
+      </c>
+      <c r="B19" t="str">
+        <f>[1]prices!B19</f>
+        <v>Costco</v>
+      </c>
+      <c r="C19" t="str">
+        <f>[1]prices!C19</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D19" t="str">
+        <f>[1]prices!D19</f>
+        <v>USD</v>
+      </c>
+      <c r="E19">
+        <f>[1]prices!E19</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="str">
+        <f>[1]prices!A20</f>
+        <v>CVX</v>
+      </c>
+      <c r="B20" t="str">
+        <f>[1]prices!B20</f>
+        <v>Chevron</v>
+      </c>
+      <c r="C20" t="str">
+        <f>[1]prices!C20</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D20" t="str">
+        <f>[1]prices!D20</f>
+        <v>USD</v>
+      </c>
+      <c r="E20">
+        <f>[1]prices!E20</f>
+        <v>154.13999938964801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="str">
+        <f>[1]prices!A21</f>
+        <v>DFS</v>
+      </c>
+      <c r="B21" t="str">
+        <f>[1]prices!B21</f>
+        <v>Discover Financial Services</v>
+      </c>
+      <c r="C21" t="str">
+        <f>[1]prices!C21</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D21" t="str">
+        <f>[1]prices!D21</f>
+        <v>USD</v>
+      </c>
+      <c r="E21">
+        <f>[1]prices!E21</f>
+        <v>116.120002746582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="str">
+        <f>[1]prices!A22</f>
+        <v>EBAY</v>
+      </c>
+      <c r="B22" t="str">
+        <f>[1]prices!B22</f>
+        <v>eBay</v>
+      </c>
+      <c r="C22" t="str">
+        <f>[1]prices!C22</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D22" t="str">
+        <f>[1]prices!D22</f>
+        <v>USD</v>
+      </c>
+      <c r="E22">
+        <f>[1]prices!E22</f>
+        <v>55.090000152587798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="str">
+        <f>[1]prices!A23</f>
+        <v>ENB</v>
+      </c>
+      <c r="B23" t="str">
+        <f>[1]prices!B23</f>
+        <v>Enbridge</v>
+      </c>
+      <c r="C23" t="str">
+        <f>[1]prices!C23</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D23" t="str">
+        <f>[1]prices!D23</f>
+        <v>USD</v>
+      </c>
+      <c r="E23">
+        <f>[1]prices!E23</f>
+        <v>44.400001525878899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="str">
+        <f>[1]prices!A24</f>
+        <v>FTS</v>
+      </c>
+      <c r="B24" t="str">
+        <f>[1]prices!B24</f>
+        <v>Fortis</v>
+      </c>
+      <c r="C24" t="str">
+        <f>[1]prices!C24</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D24" t="str">
+        <f>[1]prices!D24</f>
+        <v>USD</v>
+      </c>
+      <c r="E24">
+        <f>[1]prices!E24</f>
+        <v>46.349998474121001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="str">
+        <f>[1]prices!A25</f>
+        <v>GLEN.L</v>
+      </c>
+      <c r="B25" t="str">
+        <f>[1]prices!B25</f>
+        <v>Glencore</v>
+      </c>
+      <c r="C25" t="str">
+        <f>[1]prices!C25</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D25" t="str">
+        <f>[1]prices!D25</f>
+        <v>GBP</v>
+      </c>
+      <c r="E25">
+        <f>[1]prices!E25</f>
+        <v>6.35546433631339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="str">
+        <f>[1]prices!A26</f>
+        <v>GMRE</v>
+      </c>
+      <c r="B26" t="str">
+        <f>[1]prices!B26</f>
+        <v>Global Medical REIT</v>
+      </c>
+      <c r="C26" t="str">
+        <f>[1]prices!C26</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D26" t="str">
+        <f>[1]prices!D26</f>
+        <v>USD</v>
+      </c>
+      <c r="E26">
+        <f>[1]prices!E26</f>
+        <v>15.649999618530201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="str">
+        <f>[1]prices!A27</f>
+        <v>GOOG</v>
+      </c>
+      <c r="B27" t="str">
+        <f>[1]prices!B27</f>
+        <v>Alphabet</v>
+      </c>
+      <c r="C27" t="str">
+        <f>[1]prices!C27</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D27" t="str">
+        <f>[1]prices!D27</f>
+        <v>USD</v>
+      </c>
+      <c r="E27">
+        <f>[1]prices!E27</f>
+        <v>2695.03002929687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="str">
+        <f>[1]prices!A28</f>
+        <v>IAG.L</v>
+      </c>
+      <c r="B28" t="str">
+        <f>[1]prices!B28</f>
+        <v>International Consolidated Airlines Group</v>
+      </c>
+      <c r="C28" t="str">
+        <f>[1]prices!C28</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D28" t="str">
+        <f>[1]prices!D28</f>
+        <v>GBP</v>
+      </c>
+      <c r="E28">
+        <f>[1]prices!E28</f>
+        <v>1.8456866097728399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="str">
+        <f>[1]prices!A29</f>
+        <v>JPM</v>
+      </c>
+      <c r="B29" t="str">
+        <f>[1]prices!B29</f>
+        <v>JPMorgan</v>
+      </c>
+      <c r="C29" t="str">
+        <f>[1]prices!C29</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D29" t="str">
+        <f>[1]prices!D29</f>
+        <v>USD</v>
+      </c>
+      <c r="E29">
+        <f>[1]prices!E29</f>
+        <v>139.27999877929599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="str">
+        <f>[1]prices!A30</f>
+        <v>MA</v>
+      </c>
+      <c r="B30" t="str">
+        <f>[1]prices!B30</f>
+        <v>Mastercard</v>
+      </c>
+      <c r="C30" t="str">
+        <f>[1]prices!C30</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D30" t="str">
+        <f>[1]prices!D30</f>
+        <v>USD</v>
+      </c>
+      <c r="E30">
+        <f>[1]prices!E30</f>
+        <v>344.08999633789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="str">
+        <f>[1]prices!A31</f>
+        <v>MELI</v>
+      </c>
+      <c r="B31" t="str">
+        <f>[1]prices!B31</f>
+        <v>MercadoLibre</v>
+      </c>
+      <c r="C31" t="str">
+        <f>[1]prices!C31</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D31" t="str">
+        <f>[1]prices!D31</f>
+        <v>USD</v>
+      </c>
+      <c r="E31">
+        <f>[1]prices!E31</f>
+        <v>1140.90002441406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="str">
+        <f>[1]prices!A32</f>
+        <v>MFC</v>
+      </c>
+      <c r="B32" t="str">
+        <f>[1]prices!B32</f>
+        <v>Manulife</v>
+      </c>
+      <c r="C32" t="str">
+        <f>[1]prices!C32</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D32" t="str">
+        <f>[1]prices!D32</f>
+        <v>USD</v>
+      </c>
+      <c r="E32">
+        <f>[1]prices!E32</f>
+        <v>20.0100002288818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="str">
+        <f>[1]prices!A33</f>
+        <v>MKL</v>
+      </c>
+      <c r="B33" t="str">
+        <f>[1]prices!B33</f>
+        <v>Markel</v>
+      </c>
+      <c r="C33" t="str">
+        <f>[1]prices!C33</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D33" t="str">
+        <f>[1]prices!D33</f>
+        <v>USD</v>
+      </c>
+      <c r="E33">
+        <f>[1]prices!E33</f>
+        <v>1258.2099609375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="str">
+        <f>[1]prices!A34</f>
+        <v>MSFT</v>
+      </c>
+      <c r="B34" t="str">
+        <f>[1]prices!B34</f>
+        <v>Microsoft</v>
+      </c>
+      <c r="C34" t="str">
+        <f>[1]prices!C34</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D34" t="str">
+        <f>[1]prices!D34</f>
+        <v>USD</v>
+      </c>
+      <c r="E34">
+        <f>[1]prices!E34</f>
+        <v>300.19000244140602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="str">
+        <f>[1]prices!A35</f>
+        <v>NFI.TO</v>
+      </c>
+      <c r="B35" t="str">
+        <f>[1]prices!B35</f>
+        <v>NFI Group</v>
+      </c>
+      <c r="C35" t="str">
+        <f>[1]prices!C35</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D35" t="str">
+        <f>[1]prices!D35</f>
+        <v>CAD</v>
+      </c>
+      <c r="E35">
+        <f>[1]prices!E35</f>
+        <v>14.576230654318399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="str">
+        <f>[1]prices!A36</f>
+        <v>NXPI</v>
+      </c>
+      <c r="B36" t="str">
+        <f>[1]prices!B36</f>
+        <v>NXP Semiconductors</v>
+      </c>
+      <c r="C36" t="str">
+        <f>[1]prices!C36</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D36" t="str">
+        <f>[1]prices!D36</f>
+        <v>USD</v>
+      </c>
+      <c r="E36">
+        <f>[1]prices!E36</f>
+        <v>188.350006103515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="str">
+        <f>[1]prices!A37</f>
+        <v>PYPL</v>
+      </c>
+      <c r="B37" t="str">
+        <f>[1]prices!B37</f>
+        <v>PayPal</v>
+      </c>
+      <c r="C37" t="str">
+        <f>[1]prices!C37</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D37" t="str">
+        <f>[1]prices!D37</f>
+        <v>USD</v>
+      </c>
+      <c r="E37">
+        <f>[1]prices!E37</f>
+        <v>106.61000061035099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="str">
+        <f>[1]prices!A38</f>
+        <v>RIO</v>
+      </c>
+      <c r="B38" t="str">
+        <f>[1]prices!B38</f>
+        <v>Rio Tinto</v>
+      </c>
+      <c r="C38" t="str">
+        <f>[1]prices!C38</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D38" t="str">
+        <f>[1]prices!D38</f>
+        <v>USD</v>
+      </c>
+      <c r="E38">
+        <f>[1]prices!E38</f>
+        <v>83.540000915527301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="str">
+        <f>[1]prices!A39</f>
+        <v>SAP</v>
+      </c>
+      <c r="B39" t="str">
+        <f>[1]prices!B39</f>
+        <v>Saputo</v>
+      </c>
+      <c r="C39" t="str">
+        <f>[1]prices!C39</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D39" t="str">
+        <f>[1]prices!D39</f>
+        <v>USD</v>
+      </c>
+      <c r="E39">
+        <f>[1]prices!E39</f>
+        <v>113.19000244140599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="str">
+        <f>[1]prices!A40</f>
+        <v>SHEL</v>
+      </c>
+      <c r="B40" t="str">
+        <f>[1]prices!B40</f>
+        <v>Shell</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[1]prices!C40</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D40" t="str">
+        <f>[1]prices!D40</f>
+        <v>USD</v>
+      </c>
+      <c r="E40">
+        <f>[1]prices!E40</f>
+        <v>54.619998931884702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="str">
+        <f>[1]prices!A41</f>
+        <v>SLF</v>
+      </c>
+      <c r="B41" t="str">
+        <f>[1]prices!B41</f>
+        <v>SunLife</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[1]prices!C41</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D41" t="str">
+        <f>[1]prices!D41</f>
+        <v>USD</v>
+      </c>
+      <c r="E41">
+        <f>[1]prices!E41</f>
+        <v>52.150001525878899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="str">
+        <f>[1]prices!A42</f>
+        <v>T</v>
+      </c>
+      <c r="B42" t="str">
+        <f>[1]prices!B42</f>
+        <v>AT&amp;T</v>
+      </c>
+      <c r="C42" t="str">
+        <f>[1]prices!C42</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D42" t="str">
+        <f>[1]prices!D42</f>
+        <v>USD</v>
+      </c>
+      <c r="E42">
+        <f>[1]prices!E42</f>
+        <v>23.819999694824201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="str">
+        <f>[1]prices!A43</f>
+        <v>TDG</v>
+      </c>
+      <c r="B43" t="str">
+        <f>[1]prices!B43</f>
+        <v>TransDigm</v>
+      </c>
+      <c r="C43" t="str">
+        <f>[1]prices!C43</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D43" t="str">
+        <f>[1]prices!D43</f>
+        <v>USD</v>
+      </c>
+      <c r="E43">
+        <f>[1]prices!E43</f>
+        <v>675.510009765625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="str">
+        <f>[1]prices!A44</f>
+        <v>TRP</v>
+      </c>
+      <c r="B44" t="str">
+        <f>[1]prices!B44</f>
+        <v>TC Energy</v>
+      </c>
+      <c r="C44" t="str">
+        <f>[1]prices!C44</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D44" t="str">
+        <f>[1]prices!D44</f>
+        <v>USD</v>
+      </c>
+      <c r="E44">
+        <f>[1]prices!E44</f>
+        <v>55.029998779296797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="str">
+        <f>[1]prices!A45</f>
+        <v>TU</v>
+      </c>
+      <c r="B45" t="str">
+        <f>[1]prices!B45</f>
+        <v>TELUS</v>
+      </c>
+      <c r="C45" t="str">
+        <f>[1]prices!C45</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D45" t="str">
+        <f>[1]prices!D45</f>
+        <v>USD</v>
+      </c>
+      <c r="E45">
+        <f>[1]prices!E45</f>
+        <v>25.670000076293899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="str">
+        <f>[1]prices!A46</f>
+        <v>V</v>
+      </c>
+      <c r="B46" t="str">
+        <f>[1]prices!B46</f>
+        <v>Visa</v>
+      </c>
+      <c r="C46" t="str">
+        <f>[1]prices!C46</f>
+        <v>CashFlow</v>
+      </c>
+      <c r="D46" t="str">
+        <f>[1]prices!D46</f>
+        <v>USD</v>
+      </c>
+      <c r="E46">
+        <f>[1]prices!E46</f>
+        <v>208.47999572753901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="str">
+        <f>[1]prices!A47</f>
+        <v>XOM</v>
+      </c>
+      <c r="B47" t="str">
+        <f>[1]prices!B47</f>
+        <v>Exxon Mobil</v>
+      </c>
+      <c r="C47" t="str">
+        <f>[1]prices!C47</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D47" t="str">
+        <f>[1]prices!D47</f>
+        <v>USD</v>
+      </c>
+      <c r="E47">
+        <f>[1]prices!E47</f>
+        <v>80.529998779296804</v>
       </c>
     </row>
   </sheetData>
@@ -4062,872 +6564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F6B45-0C58-8944-98B3-2DECD955E5A1}">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F1737-D837-3F4B-A0D1-B5F78C88F34D}">
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="str">
-        <f>[1]prices!A1</f>
-        <v>ticker</v>
-      </c>
-      <c r="B1" t="str">
-        <f>[1]prices!B1</f>
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <f>[1]prices!C1</f>
-        <v>type</v>
-      </c>
-      <c r="D1" t="str">
-        <f>[1]prices!D1</f>
-        <v>price</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="str">
-        <f>[1]prices!A2</f>
-        <v>AAL.L</v>
-      </c>
-      <c r="B2" t="str">
-        <f>[1]prices!B2</f>
-        <v>AngloAmerican</v>
-      </c>
-      <c r="C2" t="str">
-        <f>[1]prices!C2</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D2">
-        <f>[1]prices!D2</f>
-        <v>3823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="str">
-        <f>[1]prices!A3</f>
-        <v>AAPL</v>
-      </c>
-      <c r="B3" t="str">
-        <f>[1]prices!B3</f>
-        <v>Apple</v>
-      </c>
-      <c r="C3" t="str">
-        <f>[1]prices!C3</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D3">
-        <f>[1]prices!D3</f>
-        <v>164.21000671386699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="str">
-        <f>[1]prices!A4</f>
-        <v>ACN</v>
-      </c>
-      <c r="B4" t="str">
-        <f>[1]prices!B4</f>
-        <v>Accenture</v>
-      </c>
-      <c r="C4" t="str">
-        <f>[1]prices!C4</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D4">
-        <f>[1]prices!D4</f>
-        <v>315.73001098632801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="str">
-        <f>[1]prices!A5</f>
-        <v>ALA.TO</v>
-      </c>
-      <c r="B5" t="str">
-        <f>[1]prices!B5</f>
-        <v>AltaGas</v>
-      </c>
-      <c r="C5" t="str">
-        <f>[1]prices!C5</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D5">
-        <f>[1]prices!D5</f>
-        <v>27.889999389648398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="str">
-        <f>[1]prices!A6</f>
-        <v>AMZN</v>
-      </c>
-      <c r="B6" t="str">
-        <f>[1]prices!B6</f>
-        <v>Amazon.com</v>
-      </c>
-      <c r="C6" t="str">
-        <f>[1]prices!C6</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D6">
-        <f>[1]prices!D6</f>
-        <v>3056.15991210937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="str">
-        <f>[1]prices!A7</f>
-        <v>AQN</v>
-      </c>
-      <c r="B7" t="str">
-        <f>[1]prices!B7</f>
-        <v>Algonquin</v>
-      </c>
-      <c r="C7" t="str">
-        <f>[1]prices!C7</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D7">
-        <f>[1]prices!D7</f>
-        <v>14.5100002288818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="str">
-        <f>[1]prices!A8</f>
-        <v>AY</v>
-      </c>
-      <c r="B8" t="str">
-        <f>[1]prices!B8</f>
-        <v>Atlantica</v>
-      </c>
-      <c r="C8" t="str">
-        <f>[1]prices!C8</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D8">
-        <f>[1]prices!D8</f>
-        <v>33.759998321533203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="str">
-        <f>[1]prices!A9</f>
-        <v>BABA</v>
-      </c>
-      <c r="B9" t="str">
-        <f>[1]prices!B9</f>
-        <v>Alibaba</v>
-      </c>
-      <c r="C9" t="str">
-        <f>[1]prices!C9</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D9">
-        <f>[1]prices!D9</f>
-        <v>106.27960205078099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="str">
-        <f>[1]prices!A10</f>
-        <v>BEPC</v>
-      </c>
-      <c r="B10" t="str">
-        <f>[1]prices!B10</f>
-        <v>Brookfield Renewable</v>
-      </c>
-      <c r="C10" t="str">
-        <f>[1]prices!C10</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D10">
-        <f>[1]prices!D10</f>
-        <v>36.784999847412102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="str">
-        <f>[1]prices!A11</f>
-        <v>BIPC</v>
-      </c>
-      <c r="B11" t="str">
-        <f>[1]prices!B11</f>
-        <v>Brookfield Infrastructure</v>
-      </c>
-      <c r="C11" t="str">
-        <f>[1]prices!C11</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D11">
-        <f>[1]prices!D11</f>
-        <v>70.135002136230398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="str">
-        <f>[1]prices!A12</f>
-        <v>BK</v>
-      </c>
-      <c r="B12" t="str">
-        <f>[1]prices!B12</f>
-        <v>Bank of New York Mellon Corporation</v>
-      </c>
-      <c r="C12" t="str">
-        <f>[1]prices!C12</f>
-        <v>Financial</v>
-      </c>
-      <c r="D12">
-        <f>[1]prices!D12</f>
-        <v>52.939998626708899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="str">
-        <f>[1]prices!A13</f>
-        <v>BLK</v>
-      </c>
-      <c r="B13" t="str">
-        <f>[1]prices!B13</f>
-        <v>BlackRock</v>
-      </c>
-      <c r="C13" t="str">
-        <f>[1]prices!C13</f>
-        <v>Financial</v>
-      </c>
-      <c r="D13">
-        <f>[1]prices!D13</f>
-        <v>742.39001464843705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="str">
-        <f>[1]prices!A14</f>
-        <v>BMO</v>
-      </c>
-      <c r="B14" t="str">
-        <f>[1]prices!B14</f>
-        <v>Bank of Montreal</v>
-      </c>
-      <c r="C14" t="str">
-        <f>[1]prices!C14</f>
-        <v>Financial</v>
-      </c>
-      <c r="D14">
-        <f>[1]prices!D14</f>
-        <v>113.550003051757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="str">
-        <f>[1]prices!A15</f>
-        <v>BNS</v>
-      </c>
-      <c r="B15" t="str">
-        <f>[1]prices!B15</f>
-        <v>Bank of Nova Scotia</v>
-      </c>
-      <c r="C15" t="str">
-        <f>[1]prices!C15</f>
-        <v>Financial</v>
-      </c>
-      <c r="D15">
-        <f>[1]prices!D15</f>
-        <v>71.959999084472599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="str">
-        <f>[1]prices!A16</f>
-        <v>BP.L</v>
-      </c>
-      <c r="B16" t="str">
-        <f>[1]prices!B16</f>
-        <v>BP</v>
-      </c>
-      <c r="C16" t="str">
-        <f>[1]prices!C16</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D16">
-        <f>[1]prices!D16</f>
-        <v>363.54998779296801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="str">
-        <f>[1]prices!A17</f>
-        <v>BRK-B</v>
-      </c>
-      <c r="B17" t="str">
-        <f>[1]prices!B17</f>
-        <v>Berkshire Hathaway</v>
-      </c>
-      <c r="C17" t="str">
-        <f>[1]prices!C17</f>
-        <v>Financial</v>
-      </c>
-      <c r="D17">
-        <f>[1]prices!D17</f>
-        <v>319.55999755859301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="str">
-        <f>[1]prices!A18</f>
-        <v>BTB-UN.TO</v>
-      </c>
-      <c r="B18" t="str">
-        <f>[1]prices!B18</f>
-        <v>BTB REIT</v>
-      </c>
-      <c r="C18" t="str">
-        <f>[1]prices!C18</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D18">
-        <f>[1]prices!D18</f>
-        <v>4.0700001716613698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="str">
-        <f>[1]prices!A19</f>
-        <v>COST</v>
-      </c>
-      <c r="B19" t="str">
-        <f>[1]prices!B19</f>
-        <v>Costco</v>
-      </c>
-      <c r="C19" t="str">
-        <f>[1]prices!C19</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D19">
-        <f>[1]prices!D19</f>
-        <v>515.82000732421795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="str">
-        <f>[1]prices!A20</f>
-        <v>CVX</v>
-      </c>
-      <c r="B20" t="str">
-        <f>[1]prices!B20</f>
-        <v>Chevron</v>
-      </c>
-      <c r="C20" t="str">
-        <f>[1]prices!C20</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D20">
-        <f>[1]prices!D20</f>
-        <v>143.00500488281199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="str">
-        <f>[1]prices!A21</f>
-        <v>DFS</v>
-      </c>
-      <c r="B21" t="str">
-        <f>[1]prices!B21</f>
-        <v>Discover Financial Services</v>
-      </c>
-      <c r="C21" t="str">
-        <f>[1]prices!C21</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D21">
-        <f>[1]prices!D21</f>
-        <v>123.01999664306599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="str">
-        <f>[1]prices!A22</f>
-        <v>EBAY</v>
-      </c>
-      <c r="B22" t="str">
-        <f>[1]prices!B22</f>
-        <v>eBay</v>
-      </c>
-      <c r="C22" t="str">
-        <f>[1]prices!C22</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D22">
-        <f>[1]prices!D22</f>
-        <v>54.430000305175703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="str">
-        <f>[1]prices!A23</f>
-        <v>ENB</v>
-      </c>
-      <c r="B23" t="str">
-        <f>[1]prices!B23</f>
-        <v>Enbridge</v>
-      </c>
-      <c r="C23" t="str">
-        <f>[1]prices!C23</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D23">
-        <f>[1]prices!D23</f>
-        <v>42.939998626708899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="str">
-        <f>[1]prices!A24</f>
-        <v>FTS</v>
-      </c>
-      <c r="B24" t="str">
-        <f>[1]prices!B24</f>
-        <v>Fortis</v>
-      </c>
-      <c r="C24" t="str">
-        <f>[1]prices!C24</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D24">
-        <f>[1]prices!D24</f>
-        <v>45.9799995422363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="str">
-        <f>[1]prices!A25</f>
-        <v>GLEN.L</v>
-      </c>
-      <c r="B25" t="str">
-        <f>[1]prices!B25</f>
-        <v>Glencore</v>
-      </c>
-      <c r="C25" t="str">
-        <f>[1]prices!C25</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D25">
-        <f>[1]prices!D25</f>
-        <v>442.14999389648398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="str">
-        <f>[1]prices!A26</f>
-        <v>GMRE</v>
-      </c>
-      <c r="B26" t="str">
-        <f>[1]prices!B26</f>
-        <v>Global Medical REIT</v>
-      </c>
-      <c r="C26" t="str">
-        <f>[1]prices!C26</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D26">
-        <f>[1]prices!D26</f>
-        <v>15.569999694824199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="str">
-        <f>[1]prices!A27</f>
-        <v>GOOG</v>
-      </c>
-      <c r="B27" t="str">
-        <f>[1]prices!B27</f>
-        <v>Alphabet</v>
-      </c>
-      <c r="C27" t="str">
-        <f>[1]prices!C27</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D27">
-        <f>[1]prices!D27</f>
-        <v>2690.26000976562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="str">
-        <f>[1]prices!A28</f>
-        <v>IAG.L</v>
-      </c>
-      <c r="B28" t="str">
-        <f>[1]prices!B28</f>
-        <v>International Consolidated Airlines Group</v>
-      </c>
-      <c r="C28" t="str">
-        <f>[1]prices!C28</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D28">
-        <f>[1]prices!D28</f>
-        <v>148.55999755859301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="str">
-        <f>[1]prices!A29</f>
-        <v>JPM</v>
-      </c>
-      <c r="B29" t="str">
-        <f>[1]prices!B29</f>
-        <v>JPMorgan</v>
-      </c>
-      <c r="C29" t="str">
-        <f>[1]prices!C29</f>
-        <v>Financial</v>
-      </c>
-      <c r="D29">
-        <f>[1]prices!D29</f>
-        <v>144.22999572753901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="str">
-        <f>[1]prices!A30</f>
-        <v>MA</v>
-      </c>
-      <c r="B30" t="str">
-        <f>[1]prices!B30</f>
-        <v>Mastercard</v>
-      </c>
-      <c r="C30" t="str">
-        <f>[1]prices!C30</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D30">
-        <f>[1]prices!D30</f>
-        <v>362.98001098632801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="str">
-        <f>[1]prices!A31</f>
-        <v>MELI</v>
-      </c>
-      <c r="B31" t="str">
-        <f>[1]prices!B31</f>
-        <v>MercadoLibre</v>
-      </c>
-      <c r="C31" t="str">
-        <f>[1]prices!C31</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D31">
-        <f>[1]prices!D31</f>
-        <v>1133.0400390625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="str">
-        <f>[1]prices!A32</f>
-        <v>MFC</v>
-      </c>
-      <c r="B32" t="str">
-        <f>[1]prices!B32</f>
-        <v>Manulife</v>
-      </c>
-      <c r="C32" t="str">
-        <f>[1]prices!C32</f>
-        <v>Financial</v>
-      </c>
-      <c r="D32">
-        <f>[1]prices!D32</f>
-        <v>20.215000152587798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="str">
-        <f>[1]prices!A33</f>
-        <v>MKL</v>
-      </c>
-      <c r="B33" t="str">
-        <f>[1]prices!B33</f>
-        <v>Markel</v>
-      </c>
-      <c r="C33" t="str">
-        <f>[1]prices!C33</f>
-        <v>Financial</v>
-      </c>
-      <c r="D33">
-        <f>[1]prices!D33</f>
-        <v>1232.30004882812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="str">
-        <f>[1]prices!A34</f>
-        <v>MSFT</v>
-      </c>
-      <c r="B34" t="str">
-        <f>[1]prices!B34</f>
-        <v>Microsoft</v>
-      </c>
-      <c r="C34" t="str">
-        <f>[1]prices!C34</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D34">
-        <f>[1]prices!D34</f>
-        <v>295.97000122070301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="str">
-        <f>[1]prices!A35</f>
-        <v>NFI.TO</v>
-      </c>
-      <c r="B35" t="str">
-        <f>[1]prices!B35</f>
-        <v>NFI Group</v>
-      </c>
-      <c r="C35" t="str">
-        <f>[1]prices!C35</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D35">
-        <f>[1]prices!D35</f>
-        <v>18.9799995422363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="str">
-        <f>[1]prices!A36</f>
-        <v>NXPI</v>
-      </c>
-      <c r="B36" t="str">
-        <f>[1]prices!B36</f>
-        <v>NXP Semiconductors</v>
-      </c>
-      <c r="C36" t="str">
-        <f>[1]prices!C36</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D36">
-        <f>[1]prices!D36</f>
-        <v>189.69999694824199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="str">
-        <f>[1]prices!A37</f>
-        <v>PYPL</v>
-      </c>
-      <c r="B37" t="str">
-        <f>[1]prices!B37</f>
-        <v>PayPal</v>
-      </c>
-      <c r="C37" t="str">
-        <f>[1]prices!C37</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D37">
-        <f>[1]prices!D37</f>
-        <v>111.58999633789</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="str">
-        <f>[1]prices!A38</f>
-        <v>RIO</v>
-      </c>
-      <c r="B38" t="str">
-        <f>[1]prices!B38</f>
-        <v>Rio Tinto</v>
-      </c>
-      <c r="C38" t="str">
-        <f>[1]prices!C38</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D38">
-        <f>[1]prices!D38</f>
-        <v>78.459999084472599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="str">
-        <f>[1]prices!A39</f>
-        <v>SAP</v>
-      </c>
-      <c r="B39" t="str">
-        <f>[1]prices!B39</f>
-        <v>Saputo</v>
-      </c>
-      <c r="C39" t="str">
-        <f>[1]prices!C39</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D39">
-        <f>[1]prices!D39</f>
-        <v>113.11000061035099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="str">
-        <f>[1]prices!A40</f>
-        <v>SHEL</v>
-      </c>
-      <c r="B40" t="str">
-        <f>[1]prices!B40</f>
-        <v>Shell</v>
-      </c>
-      <c r="C40" t="str">
-        <f>[1]prices!C40</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D40">
-        <f>[1]prices!D40</f>
-        <v>52.865001678466797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="str">
-        <f>[1]prices!A41</f>
-        <v>SLF</v>
-      </c>
-      <c r="B41" t="str">
-        <f>[1]prices!B41</f>
-        <v>SunLife</v>
-      </c>
-      <c r="C41" t="str">
-        <f>[1]prices!C41</f>
-        <v>Financial</v>
-      </c>
-      <c r="D41">
-        <f>[1]prices!D41</f>
-        <v>52.340000152587798</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="str">
-        <f>[1]prices!A42</f>
-        <v>T</v>
-      </c>
-      <c r="B42" t="str">
-        <f>[1]prices!B42</f>
-        <v>AT&amp;T</v>
-      </c>
-      <c r="C42" t="str">
-        <f>[1]prices!C42</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D42">
-        <f>[1]prices!D42</f>
-        <v>23.610000610351499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="str">
-        <f>[1]prices!A43</f>
-        <v>TDG</v>
-      </c>
-      <c r="B43" t="str">
-        <f>[1]prices!B43</f>
-        <v>TransDigm</v>
-      </c>
-      <c r="C43" t="str">
-        <f>[1]prices!C43</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D43">
-        <f>[1]prices!D43</f>
-        <v>668.20001220703102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="str">
-        <f>[1]prices!A44</f>
-        <v>TRP</v>
-      </c>
-      <c r="B44" t="str">
-        <f>[1]prices!B44</f>
-        <v>TC Energy</v>
-      </c>
-      <c r="C44" t="str">
-        <f>[1]prices!C44</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D44">
-        <f>[1]prices!D44</f>
-        <v>53.270000457763601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="str">
-        <f>[1]prices!A45</f>
-        <v>TU</v>
-      </c>
-      <c r="B45" t="str">
-        <f>[1]prices!B45</f>
-        <v>TELUS</v>
-      </c>
-      <c r="C45" t="str">
-        <f>[1]prices!C45</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D45">
-        <f>[1]prices!D45</f>
-        <v>25.270000457763601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="str">
-        <f>[1]prices!A46</f>
-        <v>V</v>
-      </c>
-      <c r="B46" t="str">
-        <f>[1]prices!B46</f>
-        <v>Visa</v>
-      </c>
-      <c r="C46" t="str">
-        <f>[1]prices!C46</f>
-        <v>CashFlow</v>
-      </c>
-      <c r="D46">
-        <f>[1]prices!D46</f>
-        <v>217.05000305175699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="str">
-        <f>[1]prices!A47</f>
-        <v>XOM</v>
-      </c>
-      <c r="B47" t="str">
-        <f>[1]prices!B47</f>
-        <v>Exxon Mobil</v>
-      </c>
-      <c r="C47" t="str">
-        <f>[1]prices!C47</f>
-        <v>Dividend</v>
-      </c>
-      <c r="D47">
-        <f>[1]prices!D47</f>
-        <v>78.639999389648395</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F1737-D837-3F4B-A0D1-B5F78C88F34D}">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5061,7 +6702,7 @@
       </c>
       <c r="M2">
         <f>[2]npv!M2</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <f>[2]npv!N2</f>
@@ -5073,19 +6714,19 @@
       </c>
       <c r="P2">
         <f>[2]npv!P2</f>
-        <v>184.34308241546901</v>
+        <v>199.009953648649</v>
       </c>
       <c r="Q2">
         <f>[2]npv!Q2</f>
-        <v>91.470527693796996</v>
+        <v>102.222515037573</v>
       </c>
       <c r="R2">
         <f>[2]npv!R2</f>
-        <v>51.255174279427401</v>
+        <v>62.1796289320177</v>
       </c>
       <c r="S2">
         <f>[2]npv!S2</f>
-        <v>107.267688085987</v>
+        <v>119.24588078922901</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5139,7 +6780,7 @@
       </c>
       <c r="M3">
         <f>[2]npv!M3</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N3">
         <f>[2]npv!N3</f>
@@ -5151,19 +6792,19 @@
       </c>
       <c r="P3">
         <f>[2]npv!P3</f>
-        <v>305.32416689419199</v>
+        <v>343.44833346898997</v>
       </c>
       <c r="Q3">
         <f>[2]npv!Q3</f>
-        <v>165.50620010220399</v>
+        <v>196.91843065334501</v>
       </c>
       <c r="R3">
         <f>[2]npv!R3</f>
-        <v>100.892440467347</v>
+        <v>132.27115346514501</v>
       </c>
       <c r="S3">
         <f>[2]npv!S3</f>
-        <v>188.06746224934301</v>
+        <v>221.48321834157801</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5373,7 +7014,7 @@
       </c>
       <c r="M6">
         <f>[2]npv!M6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <f>[2]npv!N6</f>
@@ -5385,19 +7026,19 @@
       </c>
       <c r="P6">
         <f>[2]npv!P6</f>
-        <v>279.70740005726498</v>
+        <v>314.63294041150101</v>
       </c>
       <c r="Q6">
         <f>[2]npv!Q6</f>
-        <v>151.62019238387799</v>
+        <v>180.39692966882399</v>
       </c>
       <c r="R6">
         <f>[2]npv!R6</f>
-        <v>92.427541834032496</v>
+        <v>121.17357369596</v>
       </c>
       <c r="S6">
         <f>[2]npv!S6</f>
-        <v>172.28855952094</v>
+        <v>202.90072609976801</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5451,7 +7092,7 @@
       </c>
       <c r="M7">
         <f>[2]npv!M7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <f>[2]npv!N7</f>
@@ -5463,19 +7104,19 @@
       </c>
       <c r="P7">
         <f>[2]npv!P7</f>
-        <v>639.73999696427597</v>
+        <v>662.87616645484104</v>
       </c>
       <c r="Q7">
         <f>[2]npv!Q7</f>
-        <v>303.756656725016</v>
+        <v>320.49005408064301</v>
       </c>
       <c r="R7">
         <f>[2]npv!R7</f>
-        <v>161.852752007102</v>
+        <v>178.27371676840301</v>
       </c>
       <c r="S7">
         <f>[2]npv!S7</f>
-        <v>361.98048738142001</v>
+        <v>380.54098659923</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5529,7 +7170,7 @@
       </c>
       <c r="M8">
         <f>[2]npv!M8</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <f>[2]npv!N8</f>
@@ -5541,19 +7182,19 @@
       </c>
       <c r="P8">
         <f>[2]npv!P8</f>
-        <v>61.998917149226799</v>
+        <v>67.694699873139598</v>
       </c>
       <c r="Q8">
         <f>[2]npv!Q8</f>
-        <v>35.145553343478603</v>
+        <v>40.1272701587787</v>
       </c>
       <c r="R8">
         <f>[2]npv!R8</f>
-        <v>22.3846643508112</v>
+        <v>27.3121838751029</v>
       </c>
       <c r="S8">
         <f>[2]npv!S8</f>
-        <v>39.373295787402803</v>
+        <v>44.5529731879842</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5763,7 +7404,7 @@
       </c>
       <c r="M11">
         <f>[2]npv!M11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <f>[2]npv!N11</f>
@@ -5775,19 +7416,19 @@
       </c>
       <c r="P11">
         <f>[2]npv!P11</f>
-        <v>447.42732896976003</v>
+        <v>474.35172893690498</v>
       </c>
       <c r="Q11">
         <f>[2]npv!Q11</f>
-        <v>206.469556484902</v>
+        <v>225.78868523556099</v>
       </c>
       <c r="R11">
         <f>[2]npv!R11</f>
-        <v>106.31643073057</v>
+        <v>124.374852687743</v>
       </c>
       <c r="S11">
         <f>[2]npv!S11</f>
-        <v>248.71095050406001</v>
+        <v>269.93344858161902</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5813,7 +7454,7 @@
       </c>
       <c r="F12">
         <f>[2]npv!F12</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G12">
         <f>[2]npv!G12</f>
@@ -5825,7 +7466,7 @@
       </c>
       <c r="I12">
         <f>[2]npv!I12</f>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J12">
         <f>[2]npv!J12</f>
@@ -5857,15 +7498,15 @@
       </c>
       <c r="Q12">
         <f>[2]npv!Q12</f>
-        <v>134.33185323863401</v>
+        <v>103.943427335102</v>
       </c>
       <c r="R12">
         <f>[2]npv!R12</f>
-        <v>46.615537998802701</v>
+        <v>35.876912810542002</v>
       </c>
       <c r="S12">
         <f>[2]npv!S12</f>
-        <v>175.27769645976301</v>
+        <v>159.90073854187199</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5919,7 +7560,7 @@
       </c>
       <c r="M13">
         <f>[2]npv!M13</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <f>[2]npv!N13</f>
@@ -5931,19 +7572,19 @@
       </c>
       <c r="P13">
         <f>[2]npv!P13</f>
-        <v>171.70157231237999</v>
+        <v>193.14101292587199</v>
       </c>
       <c r="Q13">
         <f>[2]npv!Q13</f>
-        <v>88.8819648768349</v>
+        <v>106.32519162000401</v>
       </c>
       <c r="R13">
         <f>[2]npv!R13</f>
-        <v>51.535159307582497</v>
+        <v>68.354060899741796</v>
       </c>
       <c r="S13">
         <f>[2]npv!S13</f>
-        <v>102.523805436722</v>
+        <v>120.978598795685</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5997,7 +7638,7 @@
       </c>
       <c r="M14">
         <f>[2]npv!M14</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <f>[2]npv!N14</f>
@@ -6009,19 +7650,19 @@
       </c>
       <c r="P14">
         <f>[2]npv!P14</f>
-        <v>15.000809409011699</v>
+        <v>18.122591756406301</v>
       </c>
       <c r="Q14">
         <f>[2]npv!Q14</f>
-        <v>7.7652254260675599</v>
+        <v>10.305121793240501</v>
       </c>
       <c r="R14">
         <f>[2]npv!R14</f>
-        <v>4.5023996706893303</v>
+        <v>6.9513884777913804</v>
       </c>
       <c r="S14">
         <f>[2]npv!S14</f>
-        <v>8.9570528943373393</v>
+        <v>11.6442427875555</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6231,7 +7872,7 @@
       </c>
       <c r="M17">
         <f>[2]npv!M17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <f>[2]npv!N17</f>
@@ -6243,19 +7884,19 @@
       </c>
       <c r="P17">
         <f>[2]npv!P17</f>
-        <v>20.793378457782499</v>
+        <v>23.794336858391599</v>
       </c>
       <c r="Q17">
         <f>[2]npv!Q17</f>
-        <v>11.781974280616099</v>
+        <v>14.472203238576601</v>
       </c>
       <c r="R17">
         <f>[2]npv!R17</f>
-        <v>7.1301895264458901</v>
+        <v>9.6359351896405894</v>
       </c>
       <c r="S17">
         <f>[2]npv!S17</f>
-        <v>13.0898601075149</v>
+        <v>15.817962909840301</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -6387,7 +8028,7 @@
       </c>
       <c r="M19">
         <f>[2]npv!M19</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <f>[2]npv!N19</f>
@@ -6399,19 +8040,1891 @@
       </c>
       <c r="P19">
         <f>[2]npv!P19</f>
-        <v>529.12671886748706</v>
+        <v>556.20392856052001</v>
       </c>
       <c r="Q19">
         <f>[2]npv!Q19</f>
-        <v>247.75816005735601</v>
+        <v>267.31158114384903</v>
       </c>
       <c r="R19">
         <f>[2]npv!R19</f>
-        <v>129.53500014332499</v>
+        <v>147.57606748050901</v>
       </c>
       <c r="S19">
         <f>[2]npv!S19</f>
-        <v>296.70177972618598</v>
+        <v>318.05863126984798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="str">
+        <f>[2]npv!A20</f>
+        <v>AAL.L</v>
+      </c>
+      <c r="B20" t="str">
+        <f>[2]npv!B20</f>
+        <v>AngloAmerican</v>
+      </c>
+      <c r="C20" t="str">
+        <f>[2]npv!C20</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D20">
+        <f>[2]npv!D20</f>
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f>[2]npv!E20</f>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f>[2]npv!F20</f>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>[2]npv!G20</f>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f>[2]npv!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>[2]npv!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>[2]npv!J20</f>
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <f>[2]npv!K20</f>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f>[2]npv!L20</f>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f>[2]npv!M20</f>
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <f>[2]npv!N20</f>
+        <v>2.89</v>
+      </c>
+      <c r="O20">
+        <f>[2]npv!O20</f>
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <f>[2]npv!P20</f>
+        <v>70.672209294452898</v>
+      </c>
+      <c r="Q20">
+        <f>[2]npv!Q20</f>
+        <v>46.446096467571302</v>
+      </c>
+      <c r="R20">
+        <f>[2]npv!R20</f>
+        <v>31.964105292741099</v>
+      </c>
+      <c r="S20">
+        <f>[2]npv!S20</f>
+        <v>49.3693329631867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="str">
+        <f>[2]npv!A21</f>
+        <v>ALA.TO</v>
+      </c>
+      <c r="B21" t="str">
+        <f>[2]npv!B21</f>
+        <v>AltaGas</v>
+      </c>
+      <c r="C21" t="str">
+        <f>[2]npv!C21</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D21">
+        <f>[2]npv!D21</f>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>[2]npv!E21</f>
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <f>[2]npv!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>[2]npv!G21</f>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f>[2]npv!H21</f>
+        <v>-3</v>
+      </c>
+      <c r="I21">
+        <f>[2]npv!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>[2]npv!J21</f>
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f>[2]npv!K21</f>
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <f>[2]npv!L21</f>
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f>[2]npv!M21</f>
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <f>[2]npv!N21</f>
+        <v>0.76</v>
+      </c>
+      <c r="O21">
+        <f>[2]npv!O21</f>
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f>[2]npv!P21</f>
+        <v>19.272526424083001</v>
+      </c>
+      <c r="Q21">
+        <f>[2]npv!Q21</f>
+        <v>10.7143164074824</v>
+      </c>
+      <c r="R21">
+        <f>[2]npv!R21</f>
+        <v>7.3914025728896604</v>
+      </c>
+      <c r="S21">
+        <f>[2]npv!S21</f>
+        <v>12.284905262084701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="str">
+        <f>[2]npv!A22</f>
+        <v>AQN</v>
+      </c>
+      <c r="B22" t="str">
+        <f>[2]npv!B22</f>
+        <v>Algonquin</v>
+      </c>
+      <c r="C22" t="str">
+        <f>[2]npv!C22</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D22">
+        <f>[2]npv!D22</f>
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <f>[2]npv!E22</f>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f>[2]npv!F22</f>
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <f>[2]npv!G22</f>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f>[2]npv!H22</f>
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <f>[2]npv!I22</f>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>[2]npv!J22</f>
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <f>[2]npv!K22</f>
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <f>[2]npv!L22</f>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f>[2]npv!M22</f>
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <f>[2]npv!N22</f>
+        <v>0.61</v>
+      </c>
+      <c r="O22">
+        <f>[2]npv!O22</f>
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <f>[2]npv!P22</f>
+        <v>19.8161914529467</v>
+      </c>
+      <c r="Q22">
+        <f>[2]npv!Q22</f>
+        <v>12.840685535595201</v>
+      </c>
+      <c r="R22">
+        <f>[2]npv!R22</f>
+        <v>9.3637307021371594</v>
+      </c>
+      <c r="S22">
+        <f>[2]npv!S22</f>
+        <v>13.890250860763199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="str">
+        <f>[2]npv!A23</f>
+        <v>AY</v>
+      </c>
+      <c r="B23" t="str">
+        <f>[2]npv!B23</f>
+        <v>Atlantica</v>
+      </c>
+      <c r="C23" t="str">
+        <f>[2]npv!C23</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D23">
+        <f>[2]npv!D23</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>[2]npv!E23</f>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f>[2]npv!F23</f>
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>[2]npv!G23</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>[2]npv!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>[2]npv!I23</f>
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <f>[2]npv!J23</f>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f>[2]npv!K23</f>
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <f>[2]npv!L23</f>
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f>[2]npv!M23</f>
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <f>[2]npv!N23</f>
+        <v>1.67</v>
+      </c>
+      <c r="O23">
+        <f>[2]npv!O23</f>
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <f>[2]npv!P23</f>
+        <v>36.345314058533702</v>
+      </c>
+      <c r="Q23">
+        <f>[2]npv!Q23</f>
+        <v>24.109208968623101</v>
+      </c>
+      <c r="R23">
+        <f>[2]npv!R23</f>
+        <v>17.959193438724299</v>
+      </c>
+      <c r="S23">
+        <f>[2]npv!S23</f>
+        <v>25.9350358366266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="str">
+        <f>[2]npv!A24</f>
+        <v>BEPC</v>
+      </c>
+      <c r="B24" t="str">
+        <f>[2]npv!B24</f>
+        <v>Brookfield Renewable</v>
+      </c>
+      <c r="C24" t="str">
+        <f>[2]npv!C24</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D24">
+        <f>[2]npv!D24</f>
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f>[2]npv!E24</f>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>[2]npv!F24</f>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f>[2]npv!G24</f>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f>[2]npv!H24</f>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f>[2]npv!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>[2]npv!J24</f>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <f>[2]npv!K24</f>
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f>[2]npv!L24</f>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f>[2]npv!M24</f>
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <f>[2]npv!N24</f>
+        <v>1.23</v>
+      </c>
+      <c r="O24">
+        <f>[2]npv!O24</f>
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <f>[2]npv!P24</f>
+        <v>31.428422289215501</v>
+      </c>
+      <c r="Q24">
+        <f>[2]npv!Q24</f>
+        <v>20.638145014370298</v>
+      </c>
+      <c r="R24">
+        <f>[2]npv!R24</f>
+        <v>15.234952269301299</v>
+      </c>
+      <c r="S24">
+        <f>[2]npv!S24</f>
+        <v>22.2542703733032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="str">
+        <f>[2]npv!A25</f>
+        <v>BIPC</v>
+      </c>
+      <c r="B25" t="str">
+        <f>[2]npv!B25</f>
+        <v>Brookfield Infrastructure</v>
+      </c>
+      <c r="C25" t="str">
+        <f>[2]npv!C25</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D25">
+        <f>[2]npv!D25</f>
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <f>[2]npv!E25</f>
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <f>[2]npv!F25</f>
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <f>[2]npv!G25</f>
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f>[2]npv!H25</f>
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <f>[2]npv!I25</f>
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f>[2]npv!J25</f>
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <f>[2]npv!K25</f>
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <f>[2]npv!L25</f>
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f>[2]npv!M25</f>
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <f>[2]npv!N25</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O25">
+        <f>[2]npv!O25</f>
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <f>[2]npv!P25</f>
+        <v>67.245108700983195</v>
+      </c>
+      <c r="Q25">
+        <f>[2]npv!Q25</f>
+        <v>43.574129604397001</v>
+      </c>
+      <c r="R25">
+        <f>[2]npv!R25</f>
+        <v>31.7752828744654</v>
+      </c>
+      <c r="S25">
+        <f>[2]npv!S25</f>
+        <v>47.1357693143934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="str">
+        <f>[2]npv!A26</f>
+        <v>BP.L</v>
+      </c>
+      <c r="B26" t="str">
+        <f>[2]npv!B26</f>
+        <v>BP</v>
+      </c>
+      <c r="C26" t="str">
+        <f>[2]npv!C26</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D26">
+        <f>[2]npv!D26</f>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f>[2]npv!E26</f>
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <f>[2]npv!F26</f>
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f>[2]npv!G26</f>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f>[2]npv!H26</f>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <f>[2]npv!I26</f>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f>[2]npv!J26</f>
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <f>[2]npv!K26</f>
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <f>[2]npv!L26</f>
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f>[2]npv!M26</f>
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <f>[2]npv!N26</f>
+        <v>0.22</v>
+      </c>
+      <c r="O26">
+        <f>[2]npv!O26</f>
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <f>[2]npv!P26</f>
+        <v>5.3798913649756503</v>
+      </c>
+      <c r="Q26">
+        <f>[2]npv!Q26</f>
+        <v>3.8133333333333299</v>
+      </c>
+      <c r="R26">
+        <f>[2]npv!R26</f>
+        <v>3.01323324666114</v>
+      </c>
+      <c r="S26">
+        <f>[2]npv!S26</f>
+        <v>4.0432707168243702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="str">
+        <f>[2]npv!A27</f>
+        <v>BTB-UN.TO</v>
+      </c>
+      <c r="B27" t="str">
+        <f>[2]npv!B27</f>
+        <v>BTB REIT</v>
+      </c>
+      <c r="C27" t="str">
+        <f>[2]npv!C27</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D27">
+        <f>[2]npv!D27</f>
+        <v>-4</v>
+      </c>
+      <c r="E27">
+        <f>[2]npv!E27</f>
+        <v>-2</v>
+      </c>
+      <c r="F27">
+        <f>[2]npv!F27</f>
+        <v>-5</v>
+      </c>
+      <c r="G27">
+        <f>[2]npv!G27</f>
+        <v>-3</v>
+      </c>
+      <c r="H27">
+        <f>[2]npv!H27</f>
+        <v>-6</v>
+      </c>
+      <c r="I27">
+        <f>[2]npv!I27</f>
+        <v>-4</v>
+      </c>
+      <c r="J27">
+        <f>[2]npv!J27</f>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f>[2]npv!K27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>[2]npv!L27</f>
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f>[2]npv!M27</f>
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <f>[2]npv!N27</f>
+        <v>0.27</v>
+      </c>
+      <c r="O27">
+        <f>[2]npv!O27</f>
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <f>[2]npv!P27</f>
+        <v>3.4370169928451202</v>
+      </c>
+      <c r="Q27">
+        <f>[2]npv!Q27</f>
+        <v>2.5391801215310399</v>
+      </c>
+      <c r="R27">
+        <f>[2]npv!R27</f>
+        <v>2.0741689054229102</v>
+      </c>
+      <c r="S27">
+        <f>[2]npv!S27</f>
+        <v>2.6690278180928302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="str">
+        <f>[2]npv!A28</f>
+        <v>CVX</v>
+      </c>
+      <c r="B28" t="str">
+        <f>[2]npv!B28</f>
+        <v>Chevron</v>
+      </c>
+      <c r="C28" t="str">
+        <f>[2]npv!C28</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D28">
+        <f>[2]npv!D28</f>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <f>[2]npv!E28</f>
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <f>[2]npv!F28</f>
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f>[2]npv!G28</f>
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <f>[2]npv!H28</f>
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <f>[2]npv!I28</f>
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f>[2]npv!J28</f>
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <f>[2]npv!K28</f>
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <f>[2]npv!L28</f>
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f>[2]npv!M28</f>
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <f>[2]npv!N28</f>
+        <v>5.31</v>
+      </c>
+      <c r="O28">
+        <f>[2]npv!O28</f>
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <f>[2]npv!P28</f>
+        <v>178.949669781957</v>
+      </c>
+      <c r="Q28">
+        <f>[2]npv!Q28</f>
+        <v>115.55761780398301</v>
+      </c>
+      <c r="R28">
+        <f>[2]npv!R28</f>
+        <v>83.998478536222194</v>
+      </c>
+      <c r="S28">
+        <f>[2]npv!S28</f>
+        <v>125.107491617047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="str">
+        <f>[2]npv!A29</f>
+        <v>ENB</v>
+      </c>
+      <c r="B29" t="str">
+        <f>[2]npv!B29</f>
+        <v>Enbridge</v>
+      </c>
+      <c r="C29" t="str">
+        <f>[2]npv!C29</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D29">
+        <f>[2]npv!D29</f>
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <f>[2]npv!E29</f>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f>[2]npv!F29</f>
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f>[2]npv!G29</f>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <f>[2]npv!H29</f>
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <f>[2]npv!I29</f>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f>[2]npv!J29</f>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f>[2]npv!K29</f>
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <f>[2]npv!L29</f>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f>[2]npv!M29</f>
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <f>[2]npv!N29</f>
+        <v>2.64</v>
+      </c>
+      <c r="O29">
+        <f>[2]npv!O29</f>
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <f>[2]npv!P29</f>
+        <v>89.524324111194503</v>
+      </c>
+      <c r="Q29">
+        <f>[2]npv!Q29</f>
+        <v>57.978525653144402</v>
+      </c>
+      <c r="R29">
+        <f>[2]npv!R29</f>
+        <v>42.255958276558999</v>
+      </c>
+      <c r="S29">
+        <f>[2]npv!S29</f>
+        <v>62.7254949775838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="str">
+        <f>[2]npv!A30</f>
+        <v>FTS</v>
+      </c>
+      <c r="B30" t="str">
+        <f>[2]npv!B30</f>
+        <v>Fortis</v>
+      </c>
+      <c r="C30" t="str">
+        <f>[2]npv!C30</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D30">
+        <f>[2]npv!D30</f>
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <f>[2]npv!E30</f>
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f>[2]npv!F30</f>
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <f>[2]npv!G30</f>
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <f>[2]npv!H30</f>
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <f>[2]npv!I30</f>
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f>[2]npv!J30</f>
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <f>[2]npv!K30</f>
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <f>[2]npv!L30</f>
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f>[2]npv!M30</f>
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <f>[2]npv!N30</f>
+        <v>1.62</v>
+      </c>
+      <c r="O30">
+        <f>[2]npv!O30</f>
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <f>[2]npv!P30</f>
+        <v>50.398404541677301</v>
+      </c>
+      <c r="Q30">
+        <f>[2]npv!Q30</f>
+        <v>33.777303496916602</v>
+      </c>
+      <c r="R30">
+        <f>[2]npv!R30</f>
+        <v>23.144355136701702</v>
+      </c>
+      <c r="S30">
+        <f>[2]npv!S30</f>
+        <v>35.573749302280298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="str">
+        <f>[2]npv!A31</f>
+        <v>GLEN.L</v>
+      </c>
+      <c r="B31" t="str">
+        <f>[2]npv!B31</f>
+        <v>Glencore</v>
+      </c>
+      <c r="C31" t="str">
+        <f>[2]npv!C31</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D31">
+        <f>[2]npv!D31</f>
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <f>[2]npv!E31</f>
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <f>[2]npv!F31</f>
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <f>[2]npv!G31</f>
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <f>[2]npv!H31</f>
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f>[2]npv!I31</f>
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <f>[2]npv!J31</f>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <f>[2]npv!K31</f>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <f>[2]npv!L31</f>
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f>[2]npv!M31</f>
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <f>[2]npv!N31</f>
+        <v>0.26</v>
+      </c>
+      <c r="O31">
+        <f>[2]npv!O31</f>
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f>[2]npv!P31</f>
+        <v>9.5465666077298401</v>
+      </c>
+      <c r="Q31">
+        <f>[2]npv!Q31</f>
+        <v>6.1585073978596698</v>
+      </c>
+      <c r="R31">
+        <f>[2]npv!R31</f>
+        <v>4.4720445838312699</v>
+      </c>
+      <c r="S31">
+        <f>[2]npv!S31</f>
+        <v>6.6689863166121999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="str">
+        <f>[2]npv!A32</f>
+        <v>GMRE</v>
+      </c>
+      <c r="B32" t="str">
+        <f>[2]npv!B32</f>
+        <v>Global Medical REIT</v>
+      </c>
+      <c r="C32" t="str">
+        <f>[2]npv!C32</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D32">
+        <f>[2]npv!D32</f>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f>[2]npv!E32</f>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f>[2]npv!F32</f>
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f>[2]npv!G32</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>[2]npv!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>[2]npv!I32</f>
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f>[2]npv!J32</f>
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <f>[2]npv!K32</f>
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <f>[2]npv!L32</f>
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f>[2]npv!M32</f>
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <f>[2]npv!N32</f>
+        <v>0.8</v>
+      </c>
+      <c r="O32">
+        <f>[2]npv!O32</f>
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <f>[2]npv!P32</f>
+        <v>17.4109288903155</v>
+      </c>
+      <c r="Q32">
+        <f>[2]npv!Q32</f>
+        <v>11.549321661615799</v>
+      </c>
+      <c r="R32">
+        <f>[2]npv!R32</f>
+        <v>8.6032064377122701</v>
+      </c>
+      <c r="S32">
+        <f>[2]npv!S32</f>
+        <v>12.423969263054699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="str">
+        <f>[2]npv!A33</f>
+        <v>RIO</v>
+      </c>
+      <c r="B33" t="str">
+        <f>[2]npv!B33</f>
+        <v>Rio Tinto</v>
+      </c>
+      <c r="C33" t="str">
+        <f>[2]npv!C33</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D33">
+        <f>[2]npv!D33</f>
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <f>[2]npv!E33</f>
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <f>[2]npv!F33</f>
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <f>[2]npv!G33</f>
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>[2]npv!H33</f>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f>[2]npv!I33</f>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f>[2]npv!J33</f>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f>[2]npv!K33</f>
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <f>[2]npv!L33</f>
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f>[2]npv!M33</f>
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <f>[2]npv!N33</f>
+        <v>7.82</v>
+      </c>
+      <c r="O33">
+        <f>[2]npv!O33</f>
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <f>[2]npv!P33</f>
+        <v>275.126643297008</v>
+      </c>
+      <c r="Q33">
+        <f>[2]npv!Q33</f>
+        <v>164.61337850550001</v>
+      </c>
+      <c r="R33">
+        <f>[2]npv!R33</f>
+        <v>111.721516770992</v>
+      </c>
+      <c r="S33">
+        <f>[2]npv!S33</f>
+        <v>181.89979942260001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="str">
+        <f>[2]npv!A34</f>
+        <v>SHEL</v>
+      </c>
+      <c r="B34" t="str">
+        <f>[2]npv!B34</f>
+        <v>Shell</v>
+      </c>
+      <c r="C34" t="str">
+        <f>[2]npv!C34</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D34">
+        <f>[2]npv!D34</f>
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <f>[2]npv!E34</f>
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <f>[2]npv!F34</f>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f>[2]npv!G34</f>
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f>[2]npv!H34</f>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <f>[2]npv!I34</f>
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f>[2]npv!J34</f>
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f>[2]npv!K34</f>
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <f>[2]npv!L34</f>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f>[2]npv!M34</f>
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <f>[2]npv!N34</f>
+        <v>0.89</v>
+      </c>
+      <c r="O34">
+        <f>[2]npv!O34</f>
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <f>[2]npv!P34</f>
+        <v>23.584999999999901</v>
+      </c>
+      <c r="Q34">
+        <f>[2]npv!Q34</f>
+        <v>15.4266666666666</v>
+      </c>
+      <c r="R34">
+        <f>[2]npv!R34</f>
+        <v>11.347499999999901</v>
+      </c>
+      <c r="S34">
+        <f>[2]npv!S34</f>
+        <v>16.650416666666601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="str">
+        <f>[2]npv!A35</f>
+        <v>T</v>
+      </c>
+      <c r="B35" t="str">
+        <f>[2]npv!B35</f>
+        <v>AT&amp;T</v>
+      </c>
+      <c r="C35" t="str">
+        <f>[2]npv!C35</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D35">
+        <f>[2]npv!D35</f>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>[2]npv!E35</f>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f>[2]npv!F35</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>[2]npv!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>[2]npv!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>[2]npv!I35</f>
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <f>[2]npv!J35</f>
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <f>[2]npv!K35</f>
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <f>[2]npv!L35</f>
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <f>[2]npv!M35</f>
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <f>[2]npv!N35</f>
+        <v>2.08</v>
+      </c>
+      <c r="O35">
+        <f>[2]npv!O35</f>
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <f>[2]npv!P35</f>
+        <v>39.9612883885572</v>
+      </c>
+      <c r="Q35">
+        <f>[2]npv!Q35</f>
+        <v>27.863983099577101</v>
+      </c>
+      <c r="R35">
+        <f>[2]npv!R35</f>
+        <v>22.368336738051902</v>
+      </c>
+      <c r="S35">
+        <f>[2]npv!S35</f>
+        <v>29.844480777813601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="str">
+        <f>[2]npv!A36</f>
+        <v>TRP</v>
+      </c>
+      <c r="B36" t="str">
+        <f>[2]npv!B36</f>
+        <v>TC Energy</v>
+      </c>
+      <c r="C36" t="str">
+        <f>[2]npv!C36</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D36">
+        <f>[2]npv!D36</f>
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <f>[2]npv!E36</f>
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <f>[2]npv!F36</f>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f>[2]npv!G36</f>
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <f>[2]npv!H36</f>
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <f>[2]npv!I36</f>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f>[2]npv!J36</f>
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <f>[2]npv!K36</f>
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <f>[2]npv!L36</f>
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f>[2]npv!M36</f>
+        <v>100</v>
+      </c>
+      <c r="N36">
+        <f>[2]npv!N36</f>
+        <v>2.75</v>
+      </c>
+      <c r="O36">
+        <f>[2]npv!O36</f>
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <f>[2]npv!P36</f>
+        <v>72.874999999999901</v>
+      </c>
+      <c r="Q36">
+        <f>[2]npv!Q36</f>
+        <v>49.247504670096397</v>
+      </c>
+      <c r="R36">
+        <f>[2]npv!R36</f>
+        <v>34.061885154942097</v>
+      </c>
+      <c r="S36">
+        <f>[2]npv!S36</f>
+        <v>51.780067414521199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="str">
+        <f>[2]npv!A37</f>
+        <v>TU</v>
+      </c>
+      <c r="B37" t="str">
+        <f>[2]npv!B37</f>
+        <v>TELUS</v>
+      </c>
+      <c r="C37" t="str">
+        <f>[2]npv!C37</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D37">
+        <f>[2]npv!D37</f>
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <f>[2]npv!E37</f>
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <f>[2]npv!F37</f>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>[2]npv!G37</f>
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <f>[2]npv!H37</f>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f>[2]npv!I37</f>
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <f>[2]npv!J37</f>
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <f>[2]npv!K37</f>
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <f>[2]npv!L37</f>
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f>[2]npv!M37</f>
+        <v>100</v>
+      </c>
+      <c r="N37">
+        <f>[2]npv!N37</f>
+        <v>1.01</v>
+      </c>
+      <c r="O37">
+        <f>[2]npv!O37</f>
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <f>[2]npv!P37</f>
+        <v>29.001609602826999</v>
+      </c>
+      <c r="Q37">
+        <f>[2]npv!Q37</f>
+        <v>19.515656360791301</v>
+      </c>
+      <c r="R37">
+        <f>[2]npv!R37</f>
+        <v>13.433361090866301</v>
+      </c>
+      <c r="S37">
+        <f>[2]npv!S37</f>
+        <v>20.536753752424499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="str">
+        <f>[2]npv!A38</f>
+        <v>XOM</v>
+      </c>
+      <c r="B38" t="str">
+        <f>[2]npv!B38</f>
+        <v>Exxon Mobil</v>
+      </c>
+      <c r="C38" t="str">
+        <f>[2]npv!C38</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D38">
+        <f>[2]npv!D38</f>
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <f>[2]npv!E38</f>
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <f>[2]npv!F38</f>
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <f>[2]npv!G38</f>
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <f>[2]npv!H38</f>
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <f>[2]npv!I38</f>
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <f>[2]npv!J38</f>
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <f>[2]npv!K38</f>
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <f>[2]npv!L38</f>
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f>[2]npv!M38</f>
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <f>[2]npv!N38</f>
+        <v>3.49</v>
+      </c>
+      <c r="O38">
+        <f>[2]npv!O38</f>
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <f>[2]npv!P38</f>
+        <v>117.614754715448</v>
+      </c>
+      <c r="Q38">
+        <f>[2]npv!Q38</f>
+        <v>75.950298707326198</v>
+      </c>
+      <c r="R38">
+        <f>[2]npv!R38</f>
+        <v>55.208039565238302</v>
+      </c>
+      <c r="S38">
+        <f>[2]npv!S38</f>
+        <v>82.226957767136497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="str">
+        <f>[2]npv!A39</f>
+        <v>BK</v>
+      </c>
+      <c r="B39" t="str">
+        <f>[2]npv!B39</f>
+        <v>Bank of New York Mellon Corporation</v>
+      </c>
+      <c r="C39" t="str">
+        <f>[2]npv!C39</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D39">
+        <f>[2]npv!D39</f>
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <f>[2]npv!E39</f>
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <f>[2]npv!F39</f>
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <f>[2]npv!G39</f>
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <f>[2]npv!H39</f>
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <f>[2]npv!I39</f>
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <f>[2]npv!J39</f>
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f>[2]npv!K39</f>
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <f>[2]npv!L39</f>
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f>[2]npv!M39</f>
+        <v>100</v>
+      </c>
+      <c r="N39">
+        <f>[2]npv!N39</f>
+        <v>1.3</v>
+      </c>
+      <c r="O39">
+        <f>[2]npv!O39</f>
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <f>[2]npv!P39</f>
+        <v>51.6738414936883</v>
+      </c>
+      <c r="Q39">
+        <f>[2]npv!Q39</f>
+        <v>33.211929971996398</v>
+      </c>
+      <c r="R39">
+        <f>[2]npv!R39</f>
+        <v>24.0330736179375</v>
+      </c>
+      <c r="S39">
+        <f>[2]npv!S39</f>
+        <v>35.996846522286297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="str">
+        <f>[2]npv!A40</f>
+        <v>BLK</v>
+      </c>
+      <c r="B40" t="str">
+        <f>[2]npv!B40</f>
+        <v>BlackRock</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[2]npv!C40</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D40">
+        <f>[2]npv!D40</f>
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f>[2]npv!E40</f>
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f>[2]npv!F40</f>
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <f>[2]npv!G40</f>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f>[2]npv!H40</f>
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <f>[2]npv!I40</f>
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f>[2]npv!J40</f>
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <f>[2]npv!K40</f>
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <f>[2]npv!L40</f>
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <f>[2]npv!M40</f>
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <f>[2]npv!N40</f>
+        <v>16.52</v>
+      </c>
+      <c r="O40">
+        <f>[2]npv!O40</f>
+        <v>10</v>
+      </c>
+      <c r="P40">
+        <f>[2]npv!P40</f>
+        <v>560.20524027156603</v>
+      </c>
+      <c r="Q40">
+        <f>[2]npv!Q40</f>
+        <v>362.8050165871</v>
+      </c>
+      <c r="R40">
+        <f>[2]npv!R40</f>
+        <v>264.41986012452799</v>
+      </c>
+      <c r="S40">
+        <f>[2]npv!S40</f>
+        <v>392.50953675366799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="str">
+        <f>[2]npv!A41</f>
+        <v>BMO</v>
+      </c>
+      <c r="B41" t="str">
+        <f>[2]npv!B41</f>
+        <v>Bank of Montreal</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[2]npv!C41</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D41">
+        <f>[2]npv!D41</f>
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <f>[2]npv!E41</f>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f>[2]npv!F41</f>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f>[2]npv!G41</f>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f>[2]npv!H41</f>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f>[2]npv!I41</f>
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f>[2]npv!J41</f>
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <f>[2]npv!K41</f>
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f>[2]npv!L41</f>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f>[2]npv!M41</f>
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <f>[2]npv!N41</f>
+        <v>3.43</v>
+      </c>
+      <c r="O41">
+        <f>[2]npv!O41</f>
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <f>[2]npv!P41</f>
+        <v>80.886495981707697</v>
+      </c>
+      <c r="Q41">
+        <f>[2]npv!Q41</f>
+        <v>57.551900324626097</v>
+      </c>
+      <c r="R41">
+        <f>[2]npv!R41</f>
+        <v>45.620226278882903</v>
+      </c>
+      <c r="S41">
+        <f>[2]npv!S41</f>
+        <v>60.972776808027596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="str">
+        <f>[2]npv!A42</f>
+        <v>BNS</v>
+      </c>
+      <c r="B42" t="str">
+        <f>[2]npv!B42</f>
+        <v>Bank of Nova Scotia</v>
+      </c>
+      <c r="C42" t="str">
+        <f>[2]npv!C42</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D42">
+        <f>[2]npv!D42</f>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <f>[2]npv!E42</f>
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f>[2]npv!F42</f>
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <f>[2]npv!G42</f>
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f>[2]npv!H42</f>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f>[2]npv!I42</f>
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f>[2]npv!J42</f>
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <f>[2]npv!K42</f>
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <f>[2]npv!L42</f>
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <f>[2]npv!M42</f>
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <f>[2]npv!N42</f>
+        <v>2.91</v>
+      </c>
+      <c r="O42">
+        <f>[2]npv!O42</f>
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <f>[2]npv!P42</f>
+        <v>68.6238202060552</v>
+      </c>
+      <c r="Q42">
+        <f>[2]npv!Q42</f>
+        <v>48.826830887656598</v>
+      </c>
+      <c r="R42">
+        <f>[2]npv!R42</f>
+        <v>38.704040370713997</v>
+      </c>
+      <c r="S42">
+        <f>[2]npv!S42</f>
+        <v>51.729090528093401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="str">
+        <f>[2]npv!A43</f>
+        <v>JPM</v>
+      </c>
+      <c r="B43" t="str">
+        <f>[2]npv!B43</f>
+        <v>JPMorgan</v>
+      </c>
+      <c r="C43" t="str">
+        <f>[2]npv!C43</f>
+        <v>Dividend</v>
+      </c>
+      <c r="D43">
+        <f>[2]npv!D43</f>
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <f>[2]npv!E43</f>
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <f>[2]npv!F43</f>
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <f>[2]npv!G43</f>
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <f>[2]npv!H43</f>
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f>[2]npv!I43</f>
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <f>[2]npv!J43</f>
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <f>[2]npv!K43</f>
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <f>[2]npv!L43</f>
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <f>[2]npv!M43</f>
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <f>[2]npv!N43</f>
+        <v>3.8</v>
+      </c>
+      <c r="O43">
+        <f>[2]npv!O43</f>
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <f>[2]npv!P43</f>
+        <v>191.37047358466</v>
+      </c>
+      <c r="Q43">
+        <f>[2]npv!Q43</f>
+        <v>112.929349315351</v>
+      </c>
+      <c r="R43">
+        <f>[2]npv!R43</f>
+        <v>75.518247561948698</v>
+      </c>
+      <c r="S43">
+        <f>[2]npv!S43</f>
+        <v>125.238356070123</v>
       </c>
     </row>
   </sheetData>
